--- a/02_Datasets/internal-data.xlsx
+++ b/02_Datasets/internal-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/452190af13fbfd69/Documents/3_IES/8-Semestr/Data Analysis in Python/Python_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="567" documentId="8_{534CA496-1AC6-5749-A256-08ECE197E3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05A3EDAC-0041-D346-97D5-E7912D8BBBCB}"/>
+  <xr:revisionPtr revIDLastSave="634" documentId="8_{534CA496-1AC6-5749-A256-08ECE197E3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E21BA46-7303-0449-B42C-7D84C31A676A}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{FE8946BB-4C5C-9C45-AE5D-68187B7683CC}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$289</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="0">Sheet1!$G$2</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">Sheet1!$H$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="646">
   <si>
     <t>Munich</t>
   </si>
@@ -144,15 +144,9 @@
     <t>RB Leipzig vs. Union Berlin</t>
   </si>
   <si>
-    <t>Hoffenheim</t>
-  </si>
-  <si>
     <t>Borussia Dortmund vs. Heidenheim 1846</t>
   </si>
   <si>
-    <t>1899 Hoffenheim vs. Bayer Leverkusen</t>
-  </si>
-  <si>
     <t>Augsburg vs. St. Pauli</t>
   </si>
   <si>
@@ -186,9 +180,6 @@
     <t>Augsburg vs. Mainz 05</t>
   </si>
   <si>
-    <t>Union Berlin vs. 1899 Hoffenheim</t>
-  </si>
-  <si>
     <t>Bochum vs. Holstein Kiel</t>
   </si>
   <si>
@@ -204,9 +195,6 @@
     <t>Borussia Dortmund vs. Bochum</t>
   </si>
   <si>
-    <t>1899 Hoffenheim vs. Werder Bremen</t>
-  </si>
-  <si>
     <t>Freiburg vs. St. Pauli</t>
   </si>
   <si>
@@ -225,9 +213,6 @@
     <t>Bayer Leverkusen vs. Holstein Kiel</t>
   </si>
   <si>
-    <t>VfB Stuttgart vs. 1899 Hoffenheim</t>
-  </si>
-  <si>
     <t>Eintracht Frankfurt vs. Bayern München</t>
   </si>
   <si>
@@ -258,9 +243,6 @@
     <t>Borussia Dortmund vs. St. Pauli</t>
   </si>
   <si>
-    <t>1899 Hoffenheim vs. Bochum</t>
-  </si>
-  <si>
     <t>Freiburg vs. Augsburg</t>
   </si>
   <si>
@@ -282,9 +264,6 @@
     <t>RB Leipzig vs. Freiburg</t>
   </si>
   <si>
-    <t>Heidenheim 1846 vs. 1899 Hoffenheim</t>
-  </si>
-  <si>
     <t>Werder Bremen vs. Bayer Leverkusen</t>
   </si>
   <si>
@@ -315,9 +294,6 @@
     <t>Eintracht Frankfurt vs. Bochum</t>
   </si>
   <si>
-    <t>1899 Hoffenheim vs. St. Pauli</t>
-  </si>
-  <si>
     <t>Freiburg vs. Mainz 05</t>
   </si>
   <si>
@@ -342,9 +318,6 @@
     <t>Werder Bremen vs. Holstein Kiel</t>
   </si>
   <si>
-    <t>Augsburg vs. 1899 Hoffenheim</t>
-  </si>
-  <si>
     <t>Mainz 05 vs. Borussia Dortmund</t>
   </si>
   <si>
@@ -372,9 +345,6 @@
     <t>Eintracht Frankfurt vs. Werder Bremen</t>
   </si>
   <si>
-    <t>1899 Hoffenheim vs. RB Leipzig</t>
-  </si>
-  <si>
     <t>Wolfsburg vs. Union Berlin</t>
   </si>
   <si>
@@ -402,9 +372,6 @@
     <t>Augsburg vs. Bochum</t>
   </si>
   <si>
-    <t>Mainz 05 vs. 1899 Hoffenheim</t>
-  </si>
-  <si>
     <t>Union Berlin vs. Bayer Leverkusen</t>
   </si>
   <si>
@@ -423,9 +390,6 @@
     <t>Eintracht Frankfurt vs. Augsburg</t>
   </si>
   <si>
-    <t>1899 Hoffenheim vs. Freiburg</t>
-  </si>
-  <si>
     <t>Wolfsburg vs. Mainz 05</t>
   </si>
   <si>
@@ -441,9 +405,6 @@
     <t>RB Leipzig vs. Eintracht Frankfurt</t>
   </si>
   <si>
-    <t>Borussia Dortmund vs. 1899 Hoffenheim</t>
-  </si>
-  <si>
     <t>Heidenheim 1846 vs. VfB Stuttgart</t>
   </si>
   <si>
@@ -477,9 +438,6 @@
     <t>Eintracht Frankfurt vs. Mainz 05</t>
   </si>
   <si>
-    <t>1899 Hoffenheim vs. Bor. Mönchengladbach</t>
-  </si>
-  <si>
     <t>Werder Bremen vs. Union Berlin</t>
   </si>
   <si>
@@ -498,9 +456,6 @@
     <t>Borussia Dortmund vs. Bayer Leverkusen</t>
   </si>
   <si>
-    <t>1899 Hoffenheim vs. Wolfsburg</t>
-  </si>
-  <si>
     <t>Heidenheim 1846 vs. Union Berlin</t>
   </si>
   <si>
@@ -525,9 +480,6 @@
     <t>VfB Stuttgart vs. RB Leipzig</t>
   </si>
   <si>
-    <t>Bayern München vs. 1899 Hoffenheim</t>
-  </si>
-  <si>
     <t>Eintracht Frankfurt vs. Freiburg</t>
   </si>
   <si>
@@ -552,9 +504,6 @@
     <t>Bochum vs. RB Leipzig</t>
   </si>
   <si>
-    <t>Holstein Kiel vs. 1899 Hoffenheim</t>
-  </si>
-  <si>
     <t>VfB Stuttgart vs. Freiburg</t>
   </si>
   <si>
@@ -579,9 +528,6 @@
     <t>Freiburg vs. Bayern München</t>
   </si>
   <si>
-    <t>1899 Hoffenheim vs. Eintracht Frankfurt</t>
-  </si>
-  <si>
     <t>Augsburg vs. Heidenheim 1846</t>
   </si>
   <si>
@@ -603,9 +549,6 @@
     <t>Heidenheim 1846 vs. Borussia Dortmund</t>
   </si>
   <si>
-    <t>Bayer Leverkusen vs. 1899 Hoffenheim</t>
-  </si>
-  <si>
     <t>Bochum vs. Freiburg</t>
   </si>
   <si>
@@ -642,9 +585,6 @@
     <t>Mainz 05 vs. Augsburg</t>
   </si>
   <si>
-    <t>1899 Hoffenheim vs. Union Berlin</t>
-  </si>
-  <si>
     <t>Holstein Kiel vs. Bochum</t>
   </si>
   <si>
@@ -660,9 +600,6 @@
     <t>Bochum vs. Borussia Dortmund</t>
   </si>
   <si>
-    <t>Werder Bremen vs. 1899 Hoffenheim</t>
-  </si>
-  <si>
     <t>St. Pauli vs. Freiburg</t>
   </si>
   <si>
@@ -681,9 +618,6 @@
     <t>Holstein Kiel vs. Bayer Leverkusen</t>
   </si>
   <si>
-    <t>1899 Hoffenheim vs. VfB Stuttgart</t>
-  </si>
-  <si>
     <t>Bayern München vs. Eintracht Frankfurt</t>
   </si>
   <si>
@@ -714,9 +648,6 @@
     <t>St. Pauli vs. Borussia Dortmund</t>
   </si>
   <si>
-    <t>Bochum vs. 1899 Hoffenheim</t>
-  </si>
-  <si>
     <t>Augsburg vs. Freiburg</t>
   </si>
   <si>
@@ -738,9 +669,6 @@
     <t>Freiburg vs. RB Leipzig</t>
   </si>
   <si>
-    <t>1899 Hoffenheim vs. Heidenheim 1846</t>
-  </si>
-  <si>
     <t>Bayer Leverkusen vs. Werder Bremen</t>
   </si>
   <si>
@@ -771,9 +699,6 @@
     <t>Bochum vs. Eintracht Frankfurt</t>
   </si>
   <si>
-    <t>St. Pauli vs. 1899 Hoffenheim</t>
-  </si>
-  <si>
     <t>Mainz 05 vs. Freiburg</t>
   </si>
   <si>
@@ -798,9 +723,6 @@
     <t>Holstein Kiel vs. Werder Bremen</t>
   </si>
   <si>
-    <t>1899 Hoffenheim vs. Augsburg</t>
-  </si>
-  <si>
     <t>Borussia Dortmund vs. Mainz 05</t>
   </si>
   <si>
@@ -828,9 +750,6 @@
     <t>Werder Bremen vs. Eintracht Frankfurt</t>
   </si>
   <si>
-    <t>RB Leipzig vs. 1899 Hoffenheim</t>
-  </si>
-  <si>
     <t>Union Berlin vs. Wolfsburg</t>
   </si>
   <si>
@@ -858,9 +777,6 @@
     <t>Bochum vs. Augsburg</t>
   </si>
   <si>
-    <t>1899 Hoffenheim vs. Mainz 05</t>
-  </si>
-  <si>
     <t>Bayer Leverkusen vs. Union Berlin</t>
   </si>
   <si>
@@ -879,9 +795,6 @@
     <t>Augsburg vs. Eintracht Frankfurt</t>
   </si>
   <si>
-    <t>Freiburg vs. 1899 Hoffenheim</t>
-  </si>
-  <si>
     <t>Mainz 05 vs. Wolfsburg</t>
   </si>
   <si>
@@ -897,9 +810,6 @@
     <t>Eintracht Frankfurt vs. RB Leipzig</t>
   </si>
   <si>
-    <t>1899 Hoffenheim vs. Borussia Dortmund</t>
-  </si>
-  <si>
     <t>VfB Stuttgart vs. Heidenheim 1846</t>
   </si>
   <si>
@@ -933,9 +843,6 @@
     <t>Mainz 05 vs. Eintracht Frankfurt</t>
   </si>
   <si>
-    <t>Bor. Mönchengladbach vs. 1899 Hoffenheim</t>
-  </si>
-  <si>
     <t>Union Berlin vs. Werder Bremen</t>
   </si>
   <si>
@@ -954,9 +861,6 @@
     <t>Bayer Leverkusen vs. Borussia Dortmund</t>
   </si>
   <si>
-    <t>Wolfsburg vs. 1899 Hoffenheim</t>
-  </si>
-  <si>
     <t>Union Berlin vs. Heidenheim 1846</t>
   </si>
   <si>
@@ -981,9 +885,6 @@
     <t>RB Leipzig vs. VfB Stuttgart</t>
   </si>
   <si>
-    <t>1899 Hoffenheim vs. Bayern München</t>
-  </si>
-  <si>
     <t>Freiburg vs. Eintracht Frankfurt</t>
   </si>
   <si>
@@ -1008,9 +909,6 @@
     <t>Hamburg</t>
   </si>
   <si>
-    <t>Rhein-Neckar Arena, Hoffenheim</t>
-  </si>
-  <si>
     <t>Europa-Park Stadion, Freiburg</t>
   </si>
   <si>
@@ -1902,7 +1800,184 @@
     <t>accom. Code</t>
   </si>
   <si>
-    <t>p</t>
+    <t>A-p34515</t>
+  </si>
+  <si>
+    <t>Sinsheim</t>
+  </si>
+  <si>
+    <t>Rhein-Neckar Arena, Sinsheim</t>
+  </si>
+  <si>
+    <t>1899 Sinsheim vs. Bayer Leverkusen</t>
+  </si>
+  <si>
+    <t>Union Berlin vs. 1899 Sinsheim</t>
+  </si>
+  <si>
+    <t>1899 Sinsheim vs. Werder Bremen</t>
+  </si>
+  <si>
+    <t>VfB Stuttgart vs. 1899 Sinsheim</t>
+  </si>
+  <si>
+    <t>1899 Sinsheim vs. Bochum</t>
+  </si>
+  <si>
+    <t>Heidenheim 1846 vs. 1899 Sinsheim</t>
+  </si>
+  <si>
+    <t>1899 Sinsheim vs. St. Pauli</t>
+  </si>
+  <si>
+    <t>Augsburg vs. 1899 Sinsheim</t>
+  </si>
+  <si>
+    <t>1899 Sinsheim vs. RB Leipzig</t>
+  </si>
+  <si>
+    <t>Mainz 05 vs. 1899 Sinsheim</t>
+  </si>
+  <si>
+    <t>1899 Sinsheim vs. Freiburg</t>
+  </si>
+  <si>
+    <t>Borussia Dortmund vs. 1899 Sinsheim</t>
+  </si>
+  <si>
+    <t>1899 Sinsheim vs. Bor. Mönchengladbach</t>
+  </si>
+  <si>
+    <t>1899 Sinsheim vs. Wolfsburg</t>
+  </si>
+  <si>
+    <t>Bayern München vs. 1899 Sinsheim</t>
+  </si>
+  <si>
+    <t>Holstein Kiel vs. 1899 Sinsheim</t>
+  </si>
+  <si>
+    <t>1899 Sinsheim vs. Eintracht Frankfurt</t>
+  </si>
+  <si>
+    <t>Bayer Leverkusen vs. 1899 Sinsheim</t>
+  </si>
+  <si>
+    <t>1899 Sinsheim vs. Union Berlin</t>
+  </si>
+  <si>
+    <t>Werder Bremen vs. 1899 Sinsheim</t>
+  </si>
+  <si>
+    <t>1899 Sinsheim vs. VfB Stuttgart</t>
+  </si>
+  <si>
+    <t>Bochum vs. 1899 Sinsheim</t>
+  </si>
+  <si>
+    <t>1899 Sinsheim vs. Heidenheim 1846</t>
+  </si>
+  <si>
+    <t>St. Pauli vs. 1899 Sinsheim</t>
+  </si>
+  <si>
+    <t>1899 Sinsheim vs. Augsburg</t>
+  </si>
+  <si>
+    <t>RB Leipzig vs. 1899 Sinsheim</t>
+  </si>
+  <si>
+    <t>1899 Sinsheim vs. Mainz 05</t>
+  </si>
+  <si>
+    <t>Freiburg vs. 1899 Sinsheim</t>
+  </si>
+  <si>
+    <t>1899 Sinsheim vs. Borussia Dortmund</t>
+  </si>
+  <si>
+    <t>Bor. Mönchengladbach vs. 1899 Sinsheim</t>
+  </si>
+  <si>
+    <t>Wolfsburg vs. 1899 Sinsheim</t>
+  </si>
+  <si>
+    <t>1899 Sinsheim vs. Bayern München</t>
+  </si>
+  <si>
+    <t>A-p33317</t>
+  </si>
+  <si>
+    <t>A-p186546</t>
+  </si>
+  <si>
+    <t>A-p36311</t>
+  </si>
+  <si>
+    <t>A-p34389</t>
+  </si>
+  <si>
+    <t>A-p32702</t>
+  </si>
+  <si>
+    <t>A-p34236</t>
+  </si>
+  <si>
+    <t>A-p34749</t>
+  </si>
+  <si>
+    <t>A-p34491</t>
+  </si>
+  <si>
+    <t>A-p33206</t>
+  </si>
+  <si>
+    <t>A-p35475</t>
+  </si>
+  <si>
+    <t>A-p35053</t>
+  </si>
+  <si>
+    <t>A-p35954</t>
+  </si>
+  <si>
+    <t>A-p36116</t>
+  </si>
+  <si>
+    <t>A-p36032</t>
+  </si>
+  <si>
+    <t>A-p35125</t>
+  </si>
+  <si>
+    <t>MUN</t>
+  </si>
+  <si>
+    <t>LEJ</t>
+  </si>
+  <si>
+    <t>DTM</t>
+  </si>
+  <si>
+    <t>MHG</t>
+  </si>
+  <si>
+    <t>SXB</t>
+  </si>
+  <si>
+    <t>BWE</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>DUS</t>
+  </si>
+  <si>
+    <t>HAM</t>
+  </si>
+  <si>
+    <t>STR)</t>
   </si>
 </sst>
 </file>
@@ -2371,10 +2446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A4DE301-258D-E545-BA5A-DCF6DF88238C}">
-  <dimension ref="A1:H289"/>
+  <dimension ref="A1:I289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2388,7 +2463,7 @@
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2402,13 +2477,13 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
@@ -2422,17 +2497,20 @@
         <v>45549</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="F2" s="5">
-        <f>INDEX($H$3:$H$20,MATCH(A2,$G$3:$G$20,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="G2" s="5" t="str">
+        <f>INDEX($I$3:$I$20,MATCH(A2,$H$3:$H$20,0))</f>
+        <v>LEJ</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -2440,55 +2518,56 @@
         <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="4">
         <v>45549</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="F3" s="5" t="str">
-        <f t="shared" ref="F3:F28" si="0">INDEX($H$3:$H$20,MATCH(A3,$G$3:$G$20,0))</f>
-        <v>A-p35722</v>
-      </c>
-      <c r="G3" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I3" s="5" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>34</v>
+        <v>587</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>322</v>
+        <v>588</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>36</v>
+        <v>589</v>
       </c>
       <c r="D4" s="4">
         <v>45549</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I4" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>32</v>
@@ -2497,17 +2576,19 @@
         <v>45549</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="F5" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
@@ -2515,23 +2596,25 @@
         <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D6" s="4">
         <v>45549</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="F6" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>p</v>
-      </c>
-      <c r="G6" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I6" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>28</v>
       </c>
@@ -2539,26 +2622,25 @@
         <v>29</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" s="4">
         <v>45549</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I7" s="5" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
@@ -2566,23 +2648,25 @@
         <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="4">
         <v>45549</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I8" s="5" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
@@ -2590,47 +2674,51 @@
         <v>14</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" s="4">
         <v>45549</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I9" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="4">
         <v>45549</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I10" s="5" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
@@ -2638,23 +2726,25 @@
         <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" s="4">
         <v>45556</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>3</v>
       </c>
@@ -2662,47 +2752,51 @@
         <v>18</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D12" s="4">
         <v>45556</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I12" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D13" s="4">
         <v>45556</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I13" s="5" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>30</v>
       </c>
@@ -2710,47 +2804,51 @@
         <v>31</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D14" s="4">
         <v>45556</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I14" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" s="4">
         <v>45556</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I15" s="5" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>16</v>
       </c>
@@ -2758,23 +2856,25 @@
         <v>17</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="4">
         <v>45556</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="F16" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>p</v>
-      </c>
-      <c r="G16" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I16" s="5" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>1</v>
       </c>
@@ -2782,26 +2882,25 @@
         <v>23</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>48</v>
+        <v>590</v>
       </c>
       <c r="D17" s="4">
         <v>45556</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="F17" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>p</v>
-      </c>
-      <c r="G17" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I17" s="5" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>10</v>
       </c>
@@ -2809,47 +2908,51 @@
         <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D18" s="4">
         <v>45556</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I18" s="5" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D19" s="4">
         <v>45556</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>0</v>
       </c>
@@ -2857,23 +2960,25 @@
         <v>12</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D20" s="4">
         <v>45563</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="F20" s="5">
-        <f t="shared" si="0"/>
+        <v>314</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="H20" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I20" s="5" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>5</v>
       </c>
@@ -2881,20 +2986,19 @@
         <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D21" s="4">
         <v>45563</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
@@ -2902,62 +3006,59 @@
         <v>27</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D22" s="4">
         <v>45563</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="F22" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>A-p35722</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>34</v>
+        <v>587</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>322</v>
+        <v>588</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>54</v>
+        <v>591</v>
       </c>
       <c r="D23" s="4">
         <v>45563</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="F23" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D24" s="4">
         <v>45563</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="F24" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>28</v>
       </c>
@@ -2965,20 +3066,19 @@
         <v>29</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D25" s="4">
         <v>45563</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="F25" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
@@ -2986,20 +3086,19 @@
         <v>26</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D26" s="4">
         <v>45563</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="F26" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>13</v>
       </c>
@@ -3007,41 +3106,39 @@
         <v>14</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D27" s="4">
         <v>45563</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="F27" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D28" s="4">
         <v>45563</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="F28" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>21</v>
       </c>
@@ -3049,16 +3146,19 @@
         <v>22</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D29" s="4">
         <v>45570</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
@@ -3066,33 +3166,39 @@
         <v>18</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>61</v>
+        <v>592</v>
       </c>
       <c r="D30" s="4">
         <v>45570</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D31" s="4">
         <v>45570</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>30</v>
       </c>
@@ -3100,33 +3206,39 @@
         <v>31</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D32" s="4">
         <v>45570</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D33" s="4">
         <v>45570</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>16</v>
       </c>
@@ -3134,16 +3246,19 @@
         <v>17</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D34" s="4">
         <v>45570</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>1</v>
       </c>
@@ -3151,16 +3266,19 @@
         <v>23</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D35" s="4">
         <v>45570</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>10</v>
       </c>
@@ -3168,33 +3286,39 @@
         <v>11</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D36" s="4">
         <v>45570</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D37" s="4">
         <v>45570</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>21</v>
       </c>
@@ -3202,16 +3326,19 @@
         <v>22</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D38" s="4">
         <v>45584</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>0</v>
       </c>
@@ -3219,16 +3346,19 @@
         <v>12</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D39" s="4">
         <v>45584</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>2</v>
       </c>
@@ -3236,50 +3366,59 @@
         <v>27</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D40" s="4">
         <v>45584</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>34</v>
+        <v>587</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>322</v>
+        <v>588</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>72</v>
+        <v>593</v>
       </c>
       <c r="D41" s="4">
         <v>45584</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D42" s="4">
         <v>45584</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>28</v>
       </c>
@@ -3287,16 +3426,19 @@
         <v>29</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D43" s="4">
         <v>45584</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>25</v>
       </c>
@@ -3304,16 +3446,19 @@
         <v>26</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D44" s="4">
         <v>45584</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>13</v>
       </c>
@@ -3321,33 +3466,39 @@
         <v>14</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D45" s="4">
         <v>45584</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D46" s="4">
         <v>45584</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>3</v>
       </c>
@@ -3355,16 +3506,19 @@
         <v>18</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D47" s="4">
         <v>45591</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>5</v>
       </c>
@@ -3372,16 +3526,19 @@
         <v>19</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D48" s="4">
         <v>45591</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>30</v>
       </c>
@@ -3389,33 +3546,39 @@
         <v>31</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>80</v>
+        <v>594</v>
       </c>
       <c r="D49" s="4">
         <v>45591</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D50" s="4">
         <v>45591</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>16</v>
       </c>
@@ -3423,16 +3586,19 @@
         <v>17</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D51" s="4">
         <v>45591</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>25</v>
       </c>
@@ -3440,16 +3606,19 @@
         <v>26</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D52" s="4">
         <v>45591</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>1</v>
       </c>
@@ -3457,16 +3626,19 @@
         <v>23</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D53" s="4">
         <v>45591</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>10</v>
       </c>
@@ -3474,33 +3646,39 @@
         <v>11</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D54" s="4">
         <v>45591</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D55" s="4">
         <v>45591</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>21</v>
       </c>
@@ -3508,16 +3686,19 @@
         <v>22</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D56" s="4">
         <v>45598</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>0</v>
       </c>
@@ -3525,16 +3706,19 @@
         <v>12</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D57" s="4">
         <v>45598</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>2</v>
       </c>
@@ -3542,67 +3726,79 @@
         <v>27</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D58" s="4">
         <v>45598</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D59" s="4">
         <v>45598</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>34</v>
+        <v>587</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>322</v>
+        <v>588</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>91</v>
+        <v>595</v>
       </c>
       <c r="D60" s="4">
         <v>45598</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D61" s="4">
         <v>45598</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>28</v>
       </c>
@@ -3610,16 +3806,19 @@
         <v>29</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D62" s="4">
         <v>45598</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>13</v>
       </c>
@@ -3627,33 +3826,39 @@
         <v>14</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D63" s="4">
         <v>45598</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D64" s="4">
         <v>45598</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>3</v>
       </c>
@@ -3661,16 +3866,19 @@
         <v>18</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D65" s="4">
         <v>45605</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>5</v>
       </c>
@@ -3678,16 +3886,19 @@
         <v>19</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D66" s="4">
         <v>45605</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>30</v>
       </c>
@@ -3695,33 +3906,39 @@
         <v>31</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D67" s="4">
         <v>45605</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D68" s="4">
         <v>45605</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>16</v>
       </c>
@@ -3729,16 +3946,19 @@
         <v>17</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>100</v>
+        <v>596</v>
       </c>
       <c r="D69" s="4">
         <v>45605</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>25</v>
       </c>
@@ -3746,16 +3966,19 @@
         <v>26</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D70" s="4">
         <v>45605</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>1</v>
       </c>
@@ -3763,16 +3986,19 @@
         <v>23</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D71" s="4">
         <v>45605</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>10</v>
       </c>
@@ -3780,33 +4006,39 @@
         <v>11</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D72" s="4">
         <v>45605</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D73" s="4">
         <v>45605</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>21</v>
       </c>
@@ -3814,16 +4046,19 @@
         <v>22</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D74" s="4">
         <v>45619</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>3</v>
       </c>
@@ -3831,16 +4066,19 @@
         <v>18</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D75" s="4">
         <v>45619</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>0</v>
       </c>
@@ -3848,16 +4086,19 @@
         <v>12</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D76" s="4">
         <v>45619</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
         <v>2</v>
       </c>
@@ -3865,50 +4106,59 @@
         <v>27</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D77" s="4">
         <v>45619</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D78" s="4">
         <v>45619</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>34</v>
+        <v>587</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>322</v>
+        <v>588</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>110</v>
+        <v>597</v>
       </c>
       <c r="D79" s="4">
         <v>45619</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>28</v>
       </c>
@@ -3916,16 +4166,19 @@
         <v>29</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D80" s="4">
         <v>45619</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>374</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>13</v>
       </c>
@@ -3933,33 +4186,39 @@
         <v>14</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D81" s="4">
         <v>45619</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>375</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D82" s="4">
         <v>45619</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>5</v>
       </c>
@@ -3967,16 +4226,19 @@
         <v>19</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D83" s="4">
         <v>45626</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>2</v>
       </c>
@@ -3984,16 +4246,19 @@
         <v>27</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D84" s="4">
         <v>45626</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
         <v>30</v>
       </c>
@@ -4001,50 +4266,59 @@
         <v>31</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D85" s="4">
         <v>45626</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>379</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D86" s="4">
         <v>45626</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D87" s="4">
         <v>45626</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>16</v>
       </c>
@@ -4052,16 +4326,19 @@
         <v>17</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D88" s="4">
         <v>45626</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>382</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>25</v>
       </c>
@@ -4069,16 +4346,19 @@
         <v>26</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>120</v>
+        <v>598</v>
       </c>
       <c r="D89" s="4">
         <v>45626</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
         <v>1</v>
       </c>
@@ -4086,33 +4366,39 @@
         <v>23</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D90" s="4">
         <v>45626</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D91" s="4">
         <v>45626</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
         <v>21</v>
       </c>
@@ -4120,16 +4406,19 @@
         <v>22</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D92" s="4">
         <v>45633</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>3</v>
       </c>
@@ -4137,16 +4426,19 @@
         <v>18</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D93" s="4">
         <v>45633</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
         <v>0</v>
       </c>
@@ -4154,50 +4446,59 @@
         <v>12</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D94" s="4">
         <v>45633</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D95" s="4">
         <v>45633</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>34</v>
+        <v>587</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>322</v>
+        <v>588</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>127</v>
+        <v>599</v>
       </c>
       <c r="D96" s="4">
         <v>45633</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>28</v>
       </c>
@@ -4205,16 +4506,19 @@
         <v>29</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D97" s="4">
         <v>45633</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>13</v>
       </c>
@@ -4222,16 +4526,19 @@
         <v>14</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D98" s="4">
         <v>45633</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>392</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>10</v>
       </c>
@@ -4239,33 +4546,39 @@
         <v>11</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D99" s="4">
         <v>45633</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D100" s="4">
         <v>45633</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>5</v>
       </c>
@@ -4273,16 +4586,19 @@
         <v>19</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D101" s="4">
         <v>45640</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>2</v>
       </c>
@@ -4290,16 +4606,19 @@
         <v>27</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>133</v>
+        <v>600</v>
       </c>
       <c r="D102" s="4">
         <v>45640</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>30</v>
       </c>
@@ -4307,33 +4626,39 @@
         <v>31</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="D103" s="4">
         <v>45640</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D104" s="4">
         <v>45640</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>25</v>
       </c>
@@ -4341,16 +4666,19 @@
         <v>26</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D105" s="4">
         <v>45640</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
         <v>13</v>
       </c>
@@ -4358,16 +4686,19 @@
         <v>14</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="D106" s="4">
         <v>45640</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>1</v>
       </c>
@@ -4375,33 +4706,39 @@
         <v>23</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D107" s="4">
         <v>45640</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D108" s="4">
         <v>45640</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>16</v>
       </c>
@@ -4409,16 +4746,19 @@
         <v>17</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D109" s="4">
         <v>45640</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
         <v>21</v>
       </c>
@@ -4426,16 +4766,19 @@
         <v>22</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D110" s="4">
         <v>45647</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
         <v>3</v>
       </c>
@@ -4443,16 +4786,19 @@
         <v>18</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D111" s="4">
         <v>45647</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
         <v>0</v>
       </c>
@@ -4460,67 +4806,79 @@
         <v>12</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D112" s="4">
         <v>45647</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D113" s="4">
         <v>45647</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
-        <v>34</v>
+        <v>587</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>322</v>
+        <v>588</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>145</v>
+        <v>601</v>
       </c>
       <c r="D114" s="4">
         <v>45647</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="D115" s="4">
         <v>45647</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
         <v>28</v>
       </c>
@@ -4528,16 +4886,19 @@
         <v>29</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D116" s="4">
         <v>45647</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
         <v>10</v>
       </c>
@@ -4545,33 +4906,39 @@
         <v>11</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="D117" s="4">
         <v>45647</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D118" s="4">
         <v>45647</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
         <v>5</v>
       </c>
@@ -4579,16 +4946,19 @@
         <v>19</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="D119" s="4">
         <v>45668</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>413</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
         <v>2</v>
       </c>
@@ -4596,33 +4966,39 @@
         <v>27</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D120" s="4">
         <v>45668</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
-        <v>34</v>
+        <v>587</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>322</v>
+        <v>588</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>152</v>
+        <v>602</v>
       </c>
       <c r="D121" s="4">
         <v>45668</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
         <v>30</v>
       </c>
@@ -4630,33 +5006,39 @@
         <v>31</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="D122" s="4">
         <v>45668</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>416</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="D123" s="4">
         <v>45668</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
         <v>16</v>
       </c>
@@ -4664,16 +5046,19 @@
         <v>17</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D124" s="4">
         <v>45668</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
         <v>25</v>
       </c>
@@ -4681,16 +5066,19 @@
         <v>26</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="D125" s="4">
         <v>45668</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
         <v>13</v>
       </c>
@@ -4698,33 +5086,39 @@
         <v>14</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="D126" s="4">
         <v>45668</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D127" s="4">
         <v>45668</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
         <v>21</v>
       </c>
@@ -4732,16 +5126,19 @@
         <v>22</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="D128" s="4">
         <v>45671</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
         <v>3</v>
       </c>
@@ -4749,16 +5146,19 @@
         <v>18</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="D129" s="4">
         <v>45671</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
         <v>0</v>
       </c>
@@ -4766,50 +5166,59 @@
         <v>12</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>161</v>
+        <v>603</v>
       </c>
       <c r="D130" s="4">
         <v>45671</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="D131" s="4">
         <v>45671</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="D132" s="4">
         <v>45671</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>426</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
         <v>28</v>
       </c>
@@ -4817,16 +5226,19 @@
         <v>29</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="D133" s="4">
         <v>45671</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>427</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
         <v>1</v>
       </c>
@@ -4834,16 +5246,19 @@
         <v>23</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="D134" s="4">
         <v>45671</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>428</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>10</v>
       </c>
@@ -4851,33 +5266,39 @@
         <v>11</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="D135" s="4">
         <v>45671</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>429</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D136" s="4">
         <v>45671</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
         <v>21</v>
       </c>
@@ -4885,16 +5306,19 @@
         <v>22</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="D137" s="4">
         <v>45675</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
         <v>10</v>
       </c>
@@ -4902,21 +5326,24 @@
         <v>11</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="D138" s="4">
         <v>45675</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>432</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>20</v>
@@ -4925,27 +5352,33 @@
         <v>45675</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>170</v>
+        <v>604</v>
       </c>
       <c r="D140" s="4">
         <v>45675</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>434</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
         <v>3</v>
       </c>
@@ -4953,33 +5386,39 @@
         <v>18</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="D141" s="4">
         <v>45675</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>435</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="D142" s="4">
         <v>45675</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="8" t="s">
         <v>0</v>
       </c>
@@ -4987,16 +5426,19 @@
         <v>12</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="D143" s="4">
         <v>45675</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>437</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
         <v>1</v>
       </c>
@@ -5004,16 +5446,19 @@
         <v>23</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="D144" s="4">
         <v>45675</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>438</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>30</v>
       </c>
@@ -5021,16 +5466,19 @@
         <v>31</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="D145" s="4">
         <v>45675</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>439</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
         <v>5</v>
       </c>
@@ -5038,16 +5486,19 @@
         <v>19</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="D146" s="4">
         <v>45682</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>440</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
         <v>25</v>
       </c>
@@ -5055,50 +5506,59 @@
         <v>26</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D147" s="4">
         <v>45682</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>441</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D148" s="4">
         <v>45682</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
-        <v>34</v>
+        <v>587</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>322</v>
+        <v>588</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>179</v>
+        <v>605</v>
       </c>
       <c r="D149" s="4">
         <v>45682</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
         <v>16</v>
       </c>
@@ -5106,16 +5566,19 @@
         <v>17</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="D150" s="4">
         <v>45682</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>444</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="7" t="s">
         <v>2</v>
       </c>
@@ -5123,33 +5586,39 @@
         <v>27</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D151" s="4">
         <v>45682</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="D152" s="4">
         <v>45682</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="s">
         <v>13</v>
       </c>
@@ -5157,16 +5626,19 @@
         <v>14</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="D153" s="4">
         <v>45682</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
         <v>28</v>
       </c>
@@ -5174,16 +5646,19 @@
         <v>29</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="D154" s="4">
         <v>45682</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
         <v>1</v>
       </c>
@@ -5191,16 +5666,19 @@
         <v>23</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="D155" s="4">
         <v>45689</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>449</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="7" t="s">
         <v>30</v>
       </c>
@@ -5208,16 +5686,19 @@
         <v>31</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="D156" s="4">
         <v>45689</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>450</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="7" t="s">
         <v>21</v>
       </c>
@@ -5225,16 +5706,19 @@
         <v>22</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>187</v>
+        <v>606</v>
       </c>
       <c r="D157" s="4">
         <v>45689</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>451</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="7" t="s">
         <v>10</v>
       </c>
@@ -5242,67 +5726,79 @@
         <v>11</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="D158" s="4">
         <v>45689</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="D159" s="4">
         <v>45689</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="D160" s="4">
         <v>45689</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="D161" s="4">
         <v>45689</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
         <v>3</v>
       </c>
@@ -5310,16 +5806,19 @@
         <v>18</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="D162" s="4">
         <v>45689</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="8" t="s">
         <v>0</v>
       </c>
@@ -5327,16 +5826,19 @@
         <v>12</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="D163" s="4">
         <v>45689</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="7" t="s">
         <v>28</v>
       </c>
@@ -5344,16 +5846,19 @@
         <v>29</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="D164" s="4">
         <v>45696</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="s">
         <v>2</v>
       </c>
@@ -5361,16 +5866,19 @@
         <v>27</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="D165" s="4">
         <v>45696</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>459</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
         <v>13</v>
       </c>
@@ -5378,33 +5886,39 @@
         <v>14</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="D166" s="4">
         <v>45696</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="D167" s="4">
         <v>45696</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="8" t="s">
         <v>0</v>
       </c>
@@ -5412,16 +5926,19 @@
         <v>12</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="D168" s="4">
         <v>45696</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
         <v>25</v>
       </c>
@@ -5429,50 +5946,59 @@
         <v>26</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="D169" s="4">
         <v>45696</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>463</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="7" t="s">
-        <v>34</v>
+        <v>587</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>322</v>
+        <v>588</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>200</v>
+        <v>607</v>
       </c>
       <c r="D170" s="4">
         <v>45696</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="D171" s="4">
         <v>45696</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
         <v>5</v>
       </c>
@@ -5480,16 +6006,19 @@
         <v>19</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D172" s="4">
         <v>45696</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="7" t="s">
         <v>21</v>
       </c>
@@ -5497,16 +6026,19 @@
         <v>22</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="D173" s="4">
         <v>45703</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>467</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
         <v>16</v>
       </c>
@@ -5514,16 +6046,19 @@
         <v>17</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="D174" s="4">
         <v>45703</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="7" t="s">
         <v>10</v>
       </c>
@@ -5531,50 +6066,59 @@
         <v>11</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="D175" s="4">
         <v>45703</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>206</v>
+        <v>608</v>
       </c>
       <c r="D176" s="4">
         <v>45703</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>470</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="D177" s="4">
         <v>45703</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>471</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="5" t="s">
         <v>3</v>
       </c>
@@ -5582,16 +6126,19 @@
         <v>18</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="D178" s="4">
         <v>45703</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="7" t="s">
         <v>30</v>
       </c>
@@ -5599,16 +6146,19 @@
         <v>31</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="D179" s="4">
         <v>45703</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>473</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
         <v>1</v>
       </c>
@@ -5616,67 +6166,79 @@
         <v>23</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="D180" s="4">
         <v>45703</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>474</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="D181" s="4">
         <v>45703</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="D182" s="4">
         <v>45710</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="8" t="s">
-        <v>34</v>
+        <v>587</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>322</v>
+        <v>588</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>213</v>
+        <v>609</v>
       </c>
       <c r="D183" s="4">
         <v>45710</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+      <c r="F183" s="5" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="8" t="s">
         <v>0</v>
       </c>
@@ -5684,16 +6246,19 @@
         <v>12</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="D184" s="4">
         <v>45710</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>478</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
         <v>5</v>
       </c>
@@ -5701,33 +6266,39 @@
         <v>19</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="D185" s="4">
         <v>45710</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>479</v>
+      </c>
+      <c r="F185" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="D186" s="4">
         <v>45710</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>480</v>
+      </c>
+      <c r="F186" s="5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="7" t="s">
         <v>13</v>
       </c>
@@ -5735,16 +6306,19 @@
         <v>14</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="D187" s="4">
         <v>45710</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+      <c r="F187" s="5" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="7" t="s">
         <v>2</v>
       </c>
@@ -5752,16 +6326,19 @@
         <v>27</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="D188" s="4">
         <v>45710</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
         <v>28</v>
       </c>
@@ -5769,16 +6346,19 @@
         <v>29</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="D189" s="4">
         <v>45710</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+      <c r="F189" s="5" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="5" t="s">
         <v>25</v>
       </c>
@@ -5786,33 +6366,39 @@
         <v>26</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="D190" s="4">
         <v>45710</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="D191" s="4">
         <v>45717</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
         <v>3</v>
       </c>
@@ -5820,33 +6406,39 @@
         <v>18</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="D192" s="4">
         <v>45717</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>486</v>
+      </c>
+      <c r="F192" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="D193" s="4">
         <v>45717</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+      <c r="F193" s="5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
         <v>10</v>
       </c>
@@ -5854,16 +6446,19 @@
         <v>11</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>224</v>
+        <v>610</v>
       </c>
       <c r="D194" s="4">
         <v>45717</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="7" t="s">
         <v>16</v>
       </c>
@@ -5871,33 +6466,39 @@
         <v>17</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="D195" s="4">
         <v>45717</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>489</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="D196" s="4">
         <v>45717</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+      <c r="F196" s="5" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
         <v>5</v>
       </c>
@@ -5905,16 +6506,19 @@
         <v>19</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="D197" s="4">
         <v>45717</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+      <c r="F197" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="7" t="s">
         <v>30</v>
       </c>
@@ -5922,16 +6526,19 @@
         <v>31</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="D198" s="4">
         <v>45717</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
         <v>1</v>
       </c>
@@ -5939,67 +6546,79 @@
         <v>23</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="D199" s="4">
         <v>45717</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="D200" s="4">
         <v>45724</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="D201" s="4">
         <v>45724</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+      <c r="F201" s="5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="8" t="s">
-        <v>34</v>
+        <v>587</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>322</v>
+        <v>588</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>232</v>
+        <v>611</v>
       </c>
       <c r="D202" s="4">
         <v>45724</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+      <c r="F202" s="5" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="7" t="s">
         <v>21</v>
       </c>
@@ -6007,16 +6626,19 @@
         <v>22</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="D203" s="4">
         <v>45724</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>497</v>
+      </c>
+      <c r="F203" s="5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="7" t="s">
         <v>2</v>
       </c>
@@ -6024,16 +6646,19 @@
         <v>27</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="D204" s="4">
         <v>45724</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="7" t="s">
         <v>13</v>
       </c>
@@ -6041,33 +6666,39 @@
         <v>14</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="D205" s="4">
         <v>45724</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+      <c r="F205" s="5" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="D206" s="4">
         <v>45724</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="8" t="s">
         <v>0</v>
       </c>
@@ -6075,16 +6706,19 @@
         <v>12</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="D207" s="4">
         <v>45724</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+      <c r="F207" s="5" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="7" t="s">
         <v>28</v>
       </c>
@@ -6092,16 +6726,19 @@
         <v>29</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="D208" s="4">
         <v>45724</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>502</v>
+      </c>
+      <c r="F208" s="5" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="5" t="s">
         <v>3</v>
       </c>
@@ -6109,16 +6746,19 @@
         <v>18</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="D209" s="4">
         <v>45731</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>503</v>
+      </c>
+      <c r="F209" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="5" t="s">
         <v>1</v>
       </c>
@@ -6126,16 +6766,19 @@
         <v>23</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="D210" s="4">
         <v>45731</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>504</v>
+      </c>
+      <c r="F210" s="5" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="7" t="s">
         <v>5</v>
       </c>
@@ -6143,16 +6786,19 @@
         <v>19</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="D211" s="4">
         <v>45731</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>505</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
         <v>10</v>
       </c>
@@ -6160,33 +6806,39 @@
         <v>11</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="D212" s="4">
         <v>45731</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>506</v>
+      </c>
+      <c r="F212" s="5" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="5" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>243</v>
+        <v>612</v>
       </c>
       <c r="D213" s="4">
         <v>45731</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>507</v>
+      </c>
+      <c r="F213" s="5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
         <v>25</v>
       </c>
@@ -6194,16 +6846,19 @@
         <v>26</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="D214" s="4">
         <v>45731</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>508</v>
+      </c>
+      <c r="F214" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="7" t="s">
         <v>16</v>
       </c>
@@ -6211,33 +6866,39 @@
         <v>17</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="D215" s="4">
         <v>45731</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>509</v>
+      </c>
+      <c r="F215" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="D216" s="4">
         <v>45731</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>510</v>
+      </c>
+      <c r="F216" s="5" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="7" t="s">
         <v>30</v>
       </c>
@@ -6245,33 +6906,39 @@
         <v>31</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="D217" s="4">
         <v>45731</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>511</v>
+      </c>
+      <c r="F217" s="5" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="D218" s="4">
         <v>45745</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>512</v>
+      </c>
+      <c r="F218" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="7" t="s">
         <v>13</v>
       </c>
@@ -6279,16 +6946,19 @@
         <v>14</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="D219" s="4">
         <v>45745</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>513</v>
+      </c>
+      <c r="F219" s="5" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
         <v>28</v>
       </c>
@@ -6296,50 +6966,59 @@
         <v>29</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="D220" s="4">
         <v>45745</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+      <c r="F220" s="5" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="5" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="D221" s="4">
         <v>45745</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>515</v>
+      </c>
+      <c r="F221" s="5" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="8" t="s">
-        <v>34</v>
+        <v>587</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>322</v>
+        <v>588</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>252</v>
+        <v>613</v>
       </c>
       <c r="D222" s="4">
         <v>45745</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>516</v>
+      </c>
+      <c r="F222" s="5" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="7" t="s">
         <v>2</v>
       </c>
@@ -6347,33 +7026,39 @@
         <v>27</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="D223" s="4">
         <v>45745</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>517</v>
+      </c>
+      <c r="F223" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="D224" s="4">
         <v>45745</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>518</v>
+      </c>
+      <c r="F224" s="5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="7" t="s">
         <v>21</v>
       </c>
@@ -6381,16 +7066,19 @@
         <v>22</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="D225" s="4">
         <v>45745</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>519</v>
+      </c>
+      <c r="F225" s="5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="8" t="s">
         <v>0</v>
       </c>
@@ -6398,16 +7086,19 @@
         <v>12</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="D226" s="4">
         <v>45745</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+      <c r="F226" s="5" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="s">
         <v>30</v>
       </c>
@@ -6415,16 +7106,19 @@
         <v>31</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="D227" s="4">
         <v>45752</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+      <c r="F227" s="5" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="7" t="s">
         <v>10</v>
       </c>
@@ -6432,16 +7126,19 @@
         <v>11</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="D228" s="4">
         <v>45752</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+      <c r="F228" s="5" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="s">
         <v>16</v>
       </c>
@@ -6449,50 +7146,59 @@
         <v>17</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="D229" s="4">
         <v>45752</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+      <c r="F229" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="D230" s="4">
         <v>45752</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>524</v>
+      </c>
+      <c r="F230" s="5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="D231" s="4">
         <v>45752</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+      <c r="F231" s="5" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="7" t="s">
         <v>5</v>
       </c>
@@ -6500,16 +7206,19 @@
         <v>19</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>262</v>
+        <v>614</v>
       </c>
       <c r="D232" s="4">
         <v>45752</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+      <c r="F232" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="5" t="s">
         <v>1</v>
       </c>
@@ -6517,33 +7226,39 @@
         <v>23</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="D233" s="4">
         <v>45752</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+      <c r="F233" s="5" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="5" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="D234" s="4">
         <v>45752</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+      <c r="F234" s="5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="5" t="s">
         <v>25</v>
       </c>
@@ -6551,16 +7266,19 @@
         <v>26</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="D235" s="4">
         <v>45752</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+      <c r="F235" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="7" t="s">
         <v>28</v>
       </c>
@@ -6568,16 +7286,19 @@
         <v>29</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="D236" s="4">
         <v>45759</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>530</v>
+      </c>
+      <c r="F236" s="5" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="8" t="s">
         <v>0</v>
       </c>
@@ -6585,33 +7306,39 @@
         <v>12</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="D237" s="4">
         <v>45759</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>531</v>
+      </c>
+      <c r="F237" s="5" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="D238" s="4">
         <v>45759</v>
       </c>
       <c r="E238" s="5" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+      <c r="F238" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="5" t="s">
         <v>3</v>
       </c>
@@ -6619,16 +7346,19 @@
         <v>18</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="D239" s="4">
         <v>45759</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>533</v>
+      </c>
+      <c r="F239" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="7" t="s">
         <v>13</v>
       </c>
@@ -6636,16 +7366,19 @@
         <v>14</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="D240" s="4">
         <v>45759</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>534</v>
+      </c>
+      <c r="F240" s="5" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="7" t="s">
         <v>10</v>
       </c>
@@ -6653,33 +7386,39 @@
         <v>11</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="D241" s="4">
         <v>45759</v>
       </c>
       <c r="E241" s="5" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>535</v>
+      </c>
+      <c r="F241" s="5" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="8" t="s">
-        <v>34</v>
+        <v>587</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>322</v>
+        <v>588</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>272</v>
+        <v>615</v>
       </c>
       <c r="D242" s="4">
         <v>45759</v>
       </c>
       <c r="E242" s="5" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>536</v>
+      </c>
+      <c r="F242" s="5" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="7" t="s">
         <v>21</v>
       </c>
@@ -6687,50 +7426,59 @@
         <v>22</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="D243" s="4">
         <v>45759</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>537</v>
+      </c>
+      <c r="F243" s="5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="D244" s="4">
         <v>45759</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+      <c r="F244" s="5" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="5" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="D245" s="4">
         <v>45766</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+      <c r="F245" s="5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="5" t="s">
         <v>1</v>
       </c>
@@ -6738,16 +7486,19 @@
         <v>23</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="D246" s="4">
         <v>45766</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>540</v>
+      </c>
+      <c r="F246" s="5" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="7" t="s">
         <v>30</v>
       </c>
@@ -6755,16 +7506,19 @@
         <v>31</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="D247" s="4">
         <v>45766</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>541</v>
+      </c>
+      <c r="F247" s="5" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="7" t="s">
         <v>16</v>
       </c>
@@ -6772,33 +7526,39 @@
         <v>17</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="D248" s="4">
         <v>45766</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+      <c r="F248" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>279</v>
+        <v>616</v>
       </c>
       <c r="D249" s="4">
         <v>45766</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>543</v>
+      </c>
+      <c r="F249" s="5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="5" t="s">
         <v>25</v>
       </c>
@@ -6806,16 +7566,19 @@
         <v>26</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="D250" s="4">
         <v>45766</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>544</v>
+      </c>
+      <c r="F250" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="7" t="s">
         <v>2</v>
       </c>
@@ -6823,33 +7586,39 @@
         <v>27</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="D251" s="4">
         <v>45766</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>545</v>
+      </c>
+      <c r="F251" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="D252" s="4">
         <v>45766</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>546</v>
+      </c>
+      <c r="F252" s="5" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="7" t="s">
         <v>5</v>
       </c>
@@ -6857,50 +7626,59 @@
         <v>19</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="D253" s="4">
         <v>45766</v>
       </c>
       <c r="E253" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>547</v>
+      </c>
+      <c r="F253" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="D254" s="4">
         <v>45773</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>548</v>
+      </c>
+      <c r="F254" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="8" t="s">
-        <v>34</v>
+        <v>587</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>322</v>
+        <v>588</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>285</v>
+        <v>617</v>
       </c>
       <c r="D255" s="4">
         <v>45773</v>
       </c>
       <c r="E255" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>549</v>
+      </c>
+      <c r="F255" s="5" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="5" t="s">
         <v>3</v>
       </c>
@@ -6908,16 +7686,19 @@
         <v>18</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="D256" s="4">
         <v>45773</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>550</v>
+      </c>
+      <c r="F256" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="7" t="s">
         <v>28</v>
       </c>
@@ -6925,16 +7706,19 @@
         <v>29</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="D257" s="4">
         <v>45773</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>551</v>
+      </c>
+      <c r="F257" s="5" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="8" t="s">
         <v>0</v>
       </c>
@@ -6942,33 +7726,39 @@
         <v>12</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="D258" s="4">
         <v>45773</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>552</v>
+      </c>
+      <c r="F258" s="5" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="5" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="D259" s="4">
         <v>45773</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>553</v>
+      </c>
+      <c r="F259" s="5" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="7" t="s">
         <v>10</v>
       </c>
@@ -6976,33 +7766,39 @@
         <v>11</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="D260" s="4">
         <v>45773</v>
       </c>
       <c r="E260" s="5" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>554</v>
+      </c>
+      <c r="F260" s="5" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="D261" s="4">
         <v>45773</v>
       </c>
       <c r="E261" s="5" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>555</v>
+      </c>
+      <c r="F261" s="5" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="7" t="s">
         <v>21</v>
       </c>
@@ -7010,50 +7806,59 @@
         <v>22</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="D262" s="4">
         <v>45773</v>
       </c>
       <c r="E262" s="5" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+      <c r="F262" s="5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="D263" s="4">
         <v>45780</v>
       </c>
       <c r="E263" s="5" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>557</v>
+      </c>
+      <c r="F263" s="5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="5" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="D264" s="4">
         <v>45780</v>
       </c>
       <c r="E264" s="5" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>558</v>
+      </c>
+      <c r="F264" s="5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="7" t="s">
         <v>5</v>
       </c>
@@ -7061,16 +7866,19 @@
         <v>19</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="D265" s="4">
         <v>45780</v>
       </c>
       <c r="E265" s="5" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>559</v>
+      </c>
+      <c r="F265" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="5" t="s">
         <v>25</v>
       </c>
@@ -7078,16 +7886,19 @@
         <v>26</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="D266" s="4">
         <v>45780</v>
       </c>
       <c r="E266" s="5" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>560</v>
+      </c>
+      <c r="F266" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="7" t="s">
         <v>13</v>
       </c>
@@ -7095,16 +7906,19 @@
         <v>14</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>297</v>
+        <v>618</v>
       </c>
       <c r="D267" s="4">
         <v>45780</v>
       </c>
       <c r="E267" s="5" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>561</v>
+      </c>
+      <c r="F267" s="5" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="5" t="s">
         <v>1</v>
       </c>
@@ -7112,16 +7926,19 @@
         <v>23</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="D268" s="4">
         <v>45780</v>
       </c>
       <c r="E268" s="5" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>562</v>
+      </c>
+      <c r="F268" s="5" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="7" t="s">
         <v>2</v>
       </c>
@@ -7129,16 +7946,19 @@
         <v>27</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="D269" s="4">
         <v>45780</v>
       </c>
       <c r="E269" s="5" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>563</v>
+      </c>
+      <c r="F269" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="7" t="s">
         <v>30</v>
       </c>
@@ -7146,16 +7966,19 @@
         <v>31</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="D270" s="4">
         <v>45780</v>
       </c>
       <c r="E270" s="5" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>564</v>
+      </c>
+      <c r="F270" s="5" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="7" t="s">
         <v>16</v>
       </c>
@@ -7163,33 +7986,39 @@
         <v>17</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="D271" s="4">
         <v>45780</v>
       </c>
       <c r="E271" s="5" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>565</v>
+      </c>
+      <c r="F271" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="D272" s="4">
         <v>45787</v>
       </c>
       <c r="E272" s="5" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>566</v>
+      </c>
+      <c r="F272" s="5" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="7" t="s">
         <v>21</v>
       </c>
@@ -7197,16 +8026,19 @@
         <v>22</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="D273" s="4">
         <v>45787</v>
       </c>
       <c r="E273" s="5" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>567</v>
+      </c>
+      <c r="F273" s="5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="7" t="s">
         <v>28</v>
       </c>
@@ -7214,16 +8046,19 @@
         <v>29</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>304</v>
+        <v>619</v>
       </c>
       <c r="D274" s="4">
         <v>45787</v>
       </c>
       <c r="E274" s="5" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>568</v>
+      </c>
+      <c r="F274" s="5" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="5" t="s">
         <v>1</v>
       </c>
@@ -7231,33 +8066,39 @@
         <v>23</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="D275" s="4">
         <v>45787</v>
       </c>
       <c r="E275" s="5" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>569</v>
+      </c>
+      <c r="F275" s="5" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="5" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="D276" s="4">
         <v>45787</v>
       </c>
       <c r="E276" s="5" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>570</v>
+      </c>
+      <c r="F276" s="5" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="5" t="s">
         <v>3</v>
       </c>
@@ -7265,16 +8106,19 @@
         <v>18</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="D277" s="4">
         <v>45787</v>
       </c>
       <c r="E277" s="5" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>571</v>
+      </c>
+      <c r="F277" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="7" t="s">
         <v>10</v>
       </c>
@@ -7282,16 +8126,19 @@
         <v>11</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="D278" s="4">
         <v>45787</v>
       </c>
       <c r="E278" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>572</v>
+      </c>
+      <c r="F278" s="5" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="8" t="s">
         <v>0</v>
       </c>
@@ -7299,33 +8146,39 @@
         <v>12</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="D279" s="4">
         <v>45787</v>
       </c>
       <c r="E279" s="5" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>573</v>
+      </c>
+      <c r="F279" s="5" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="D280" s="4">
         <v>45787</v>
       </c>
       <c r="E280" s="5" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="F280" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="5" t="s">
         <v>25</v>
       </c>
@@ -7333,16 +8186,19 @@
         <v>26</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="D281" s="4">
         <v>45794</v>
       </c>
       <c r="E281" s="5" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>575</v>
+      </c>
+      <c r="F281" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="7" t="s">
         <v>5</v>
       </c>
@@ -7350,50 +8206,59 @@
         <v>19</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="D282" s="4">
         <v>45794</v>
       </c>
       <c r="E282" s="5" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>576</v>
+      </c>
+      <c r="F282" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="8" t="s">
-        <v>34</v>
+        <v>587</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>322</v>
+        <v>588</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>313</v>
+        <v>620</v>
       </c>
       <c r="D283" s="4">
         <v>45794</v>
       </c>
       <c r="E283" s="5" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+      <c r="F283" s="5" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="D284" s="4">
         <v>45794</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>578</v>
+      </c>
+      <c r="F284" s="5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="7" t="s">
         <v>30</v>
       </c>
@@ -7401,16 +8266,19 @@
         <v>31</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="D285" s="4">
         <v>45794</v>
       </c>
       <c r="E285" s="5" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>579</v>
+      </c>
+      <c r="F285" s="5" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="7" t="s">
         <v>13</v>
       </c>
@@ -7418,16 +8286,19 @@
         <v>14</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="D286" s="4">
         <v>45794</v>
       </c>
       <c r="E286" s="5" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+      <c r="F286" s="5" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="7" t="s">
         <v>16</v>
       </c>
@@ -7435,33 +8306,39 @@
         <v>17</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="D287" s="4">
         <v>45794</v>
       </c>
       <c r="E287" s="5" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>581</v>
+      </c>
+      <c r="F287" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="5" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="D288" s="4">
         <v>45794</v>
       </c>
       <c r="E288" s="5" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+      <c r="F288" s="5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="7" t="s">
         <v>2</v>
       </c>
@@ -7469,13 +8346,16 @@
         <v>27</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="D289" s="6">
         <v>45794</v>
       </c>
       <c r="E289" s="5" t="s">
-        <v>617</v>
+        <v>583</v>
+      </c>
+      <c r="F289" s="5" t="s">
+        <v>584</v>
       </c>
     </row>
   </sheetData>

--- a/02_Datasets/internal-data.xlsx
+++ b/02_Datasets/internal-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/452190af13fbfd69/Documents/3_IES/8-Semestr/Data Analysis in Python/Python_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="634" documentId="8_{534CA496-1AC6-5749-A256-08ECE197E3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E21BA46-7303-0449-B42C-7D84C31A676A}"/>
+  <xr:revisionPtr revIDLastSave="663" documentId="8_{534CA496-1AC6-5749-A256-08ECE197E3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56EE32FC-C5B2-E84C-9511-4F7E8AAAD23E}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{FE8946BB-4C5C-9C45-AE5D-68187B7683CC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="650">
   <si>
     <t>Munich</t>
   </si>
@@ -1947,9 +1947,15 @@
     <t>A-p36032</t>
   </si>
   <si>
+    <t>A-p34192</t>
+  </si>
+  <si>
     <t>A-p35125</t>
   </si>
   <si>
+    <t>flight.Code</t>
+  </si>
+  <si>
     <t>MUN</t>
   </si>
   <si>
@@ -1977,7 +1983,13 @@
     <t>HAM</t>
   </si>
   <si>
-    <t>STR)</t>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>BRE</t>
+  </si>
+  <si>
+    <t>BER</t>
   </si>
 </sst>
 </file>
@@ -2446,10 +2458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A4DE301-258D-E545-BA5A-DCF6DF88238C}">
-  <dimension ref="A1:I289"/>
+  <dimension ref="A1:H289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2463,7 +2475,7 @@
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2482,8 +2494,11 @@
       <c r="F1" s="1" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
@@ -2502,15 +2517,12 @@
       <c r="F2" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="G2" s="5" t="str">
-        <f>INDEX($I$3:$I$20,MATCH(A2,$H$3:$H$20,0))</f>
-        <v>LEJ</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G2" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -2529,14 +2541,12 @@
       <c r="F3" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G3" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>587</v>
       </c>
@@ -2555,14 +2565,12 @@
       <c r="F4" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
@@ -2581,14 +2589,12 @@
       <c r="F5" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>587</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G5" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
@@ -2607,14 +2613,12 @@
       <c r="F6" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G6" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>28</v>
       </c>
@@ -2633,14 +2637,12 @@
       <c r="F7" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G7" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
@@ -2659,14 +2661,12 @@
       <c r="F8" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G8" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
@@ -2685,14 +2685,11 @@
       <c r="F9" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G9" s="5" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>287</v>
       </c>
@@ -2711,14 +2708,12 @@
       <c r="F10" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G10" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
@@ -2737,14 +2732,11 @@
       <c r="F11" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>3</v>
       </c>
@@ -2763,14 +2755,12 @@
       <c r="F12" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>4</v>
       </c>
@@ -2789,14 +2779,11 @@
       <c r="F13" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G13" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>30</v>
       </c>
@@ -2815,14 +2802,12 @@
       <c r="F14" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G14" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
@@ -2841,14 +2826,12 @@
       <c r="F15" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="H15" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G15" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>16</v>
       </c>
@@ -2867,14 +2850,12 @@
       <c r="F16" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G16" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>1</v>
       </c>
@@ -2893,14 +2874,11 @@
       <c r="F17" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G17" s="5" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>10</v>
       </c>
@@ -2919,14 +2897,12 @@
       <c r="F18" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G18" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>288</v>
       </c>
@@ -2943,16 +2919,13 @@
         <v>313</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>0</v>
       </c>
@@ -2969,16 +2942,14 @@
         <v>314</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>5</v>
       </c>
@@ -2997,8 +2968,11 @@
       <c r="F21" s="5" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G21" s="5" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
@@ -3017,8 +2991,11 @@
       <c r="F22" s="5" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G22" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>587</v>
       </c>
@@ -3037,8 +3014,11 @@
       <c r="F23" s="5" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G23" s="5" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>24</v>
       </c>
@@ -3057,8 +3037,11 @@
       <c r="F24" s="5" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G24" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>28</v>
       </c>
@@ -3077,8 +3060,11 @@
       <c r="F25" s="5" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G25" s="5" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
@@ -3097,8 +3083,11 @@
       <c r="F26" s="5" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G26" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>13</v>
       </c>
@@ -3117,8 +3106,11 @@
       <c r="F27" s="5" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G27" s="5" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>287</v>
       </c>
@@ -3137,8 +3129,11 @@
       <c r="F28" s="5" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G28" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>21</v>
       </c>
@@ -3157,8 +3152,11 @@
       <c r="F29" s="5" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G29" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
@@ -3177,8 +3175,11 @@
       <c r="F30" s="5" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G30" s="5" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>4</v>
       </c>
@@ -3197,8 +3198,11 @@
       <c r="F31" s="5" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G31" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>30</v>
       </c>
@@ -3217,8 +3221,11 @@
       <c r="F32" s="5" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G32" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>15</v>
       </c>
@@ -3237,8 +3244,11 @@
       <c r="F33" s="5" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G33" s="5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>16</v>
       </c>
@@ -3257,8 +3267,11 @@
       <c r="F34" s="5" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G34" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>1</v>
       </c>
@@ -3277,8 +3290,11 @@
       <c r="F35" s="5" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G35" s="5" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>10</v>
       </c>
@@ -3297,8 +3313,11 @@
       <c r="F36" s="5" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G36" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>288</v>
       </c>
@@ -3315,10 +3334,13 @@
         <v>331</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>21</v>
       </c>
@@ -3337,8 +3359,11 @@
       <c r="F38" s="5" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G38" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>0</v>
       </c>
@@ -3355,10 +3380,13 @@
         <v>333</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>2</v>
       </c>
@@ -3377,8 +3405,11 @@
       <c r="F40" s="5" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G40" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>587</v>
       </c>
@@ -3397,8 +3428,11 @@
       <c r="F41" s="5" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G41" s="5" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>24</v>
       </c>
@@ -3417,8 +3451,11 @@
       <c r="F42" s="5" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G42" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>28</v>
       </c>
@@ -3437,8 +3474,11 @@
       <c r="F43" s="5" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G43" s="5" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>25</v>
       </c>
@@ -3457,8 +3497,11 @@
       <c r="F44" s="5" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G44" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>13</v>
       </c>
@@ -3477,8 +3520,11 @@
       <c r="F45" s="5" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G45" s="5" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>287</v>
       </c>
@@ -3497,8 +3543,11 @@
       <c r="F46" s="5" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G46" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>3</v>
       </c>
@@ -3517,8 +3566,11 @@
       <c r="F47" s="5" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G47" s="5" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>5</v>
       </c>
@@ -3537,8 +3589,11 @@
       <c r="F48" s="5" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G48" s="5" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>30</v>
       </c>
@@ -3557,8 +3612,11 @@
       <c r="F49" s="5" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G49" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>15</v>
       </c>
@@ -3577,8 +3635,11 @@
       <c r="F50" s="5" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G50" s="5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>16</v>
       </c>
@@ -3597,8 +3658,11 @@
       <c r="F51" s="5" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G51" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>25</v>
       </c>
@@ -3617,8 +3681,11 @@
       <c r="F52" s="5" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G52" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>1</v>
       </c>
@@ -3637,8 +3704,11 @@
       <c r="F53" s="5" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G53" s="5" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>10</v>
       </c>
@@ -3657,8 +3727,11 @@
       <c r="F54" s="5" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G54" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>288</v>
       </c>
@@ -3675,10 +3748,13 @@
         <v>349</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>21</v>
       </c>
@@ -3697,8 +3773,11 @@
       <c r="F56" s="5" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G56" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>0</v>
       </c>
@@ -3715,10 +3794,13 @@
         <v>351</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>2</v>
       </c>
@@ -3737,8 +3819,11 @@
       <c r="F58" s="5" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G58" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>4</v>
       </c>
@@ -3757,8 +3842,11 @@
       <c r="F59" s="5" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G59" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>587</v>
       </c>
@@ -3777,8 +3865,11 @@
       <c r="F60" s="5" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G60" s="5" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>24</v>
       </c>
@@ -3797,8 +3888,11 @@
       <c r="F61" s="5" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G61" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>28</v>
       </c>
@@ -3817,8 +3911,11 @@
       <c r="F62" s="5" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G62" s="5" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>13</v>
       </c>
@@ -3837,8 +3934,11 @@
       <c r="F63" s="5" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G63" s="5" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>287</v>
       </c>
@@ -3857,8 +3957,11 @@
       <c r="F64" s="5" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G64" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>3</v>
       </c>
@@ -3877,8 +3980,11 @@
       <c r="F65" s="5" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G65" s="5" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>5</v>
       </c>
@@ -3897,8 +4003,11 @@
       <c r="F66" s="5" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G66" s="5" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>30</v>
       </c>
@@ -3917,8 +4026,11 @@
       <c r="F67" s="5" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G67" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>15</v>
       </c>
@@ -3937,8 +4049,11 @@
       <c r="F68" s="5" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G68" s="5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>16</v>
       </c>
@@ -3957,8 +4072,11 @@
       <c r="F69" s="5" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G69" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>25</v>
       </c>
@@ -3977,8 +4095,11 @@
       <c r="F70" s="5" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G70" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>1</v>
       </c>
@@ -3997,8 +4118,11 @@
       <c r="F71" s="5" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G71" s="5" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>10</v>
       </c>
@@ -4017,8 +4141,11 @@
       <c r="F72" s="5" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G72" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>288</v>
       </c>
@@ -4035,10 +4162,13 @@
         <v>367</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>21</v>
       </c>
@@ -4057,8 +4187,11 @@
       <c r="F74" s="5" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G74" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>3</v>
       </c>
@@ -4077,8 +4210,11 @@
       <c r="F75" s="5" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G75" s="5" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>0</v>
       </c>
@@ -4095,10 +4231,13 @@
         <v>370</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
         <v>2</v>
       </c>
@@ -4117,8 +4256,11 @@
       <c r="F77" s="5" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G77" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>4</v>
       </c>
@@ -4137,8 +4279,11 @@
       <c r="F78" s="5" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G78" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>587</v>
       </c>
@@ -4157,8 +4302,11 @@
       <c r="F79" s="5" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G79" s="5" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>28</v>
       </c>
@@ -4177,8 +4325,11 @@
       <c r="F80" s="5" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G80" s="5" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>13</v>
       </c>
@@ -4197,8 +4348,11 @@
       <c r="F81" s="5" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G81" s="5" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>287</v>
       </c>
@@ -4217,8 +4371,11 @@
       <c r="F82" s="5" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G82" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>5</v>
       </c>
@@ -4237,8 +4394,11 @@
       <c r="F83" s="5" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G83" s="5" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>2</v>
       </c>
@@ -4257,8 +4417,11 @@
       <c r="F84" s="5" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G84" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
         <v>30</v>
       </c>
@@ -4277,8 +4440,11 @@
       <c r="F85" s="5" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G85" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>15</v>
       </c>
@@ -4297,8 +4463,11 @@
       <c r="F86" s="5" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G86" s="5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>24</v>
       </c>
@@ -4317,8 +4486,11 @@
       <c r="F87" s="5" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G87" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>16</v>
       </c>
@@ -4337,8 +4509,11 @@
       <c r="F88" s="5" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G88" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>25</v>
       </c>
@@ -4357,8 +4532,11 @@
       <c r="F89" s="5" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G89" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
         <v>1</v>
       </c>
@@ -4377,8 +4555,11 @@
       <c r="F90" s="5" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G90" s="5" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
         <v>288</v>
       </c>
@@ -4395,10 +4576,13 @@
         <v>385</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
         <v>21</v>
       </c>
@@ -4417,8 +4601,11 @@
       <c r="F92" s="5" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G92" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>3</v>
       </c>
@@ -4437,8 +4624,11 @@
       <c r="F93" s="5" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G93" s="5" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
         <v>0</v>
       </c>
@@ -4455,10 +4645,13 @@
         <v>388</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>4</v>
       </c>
@@ -4477,8 +4670,11 @@
       <c r="F95" s="5" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G95" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>587</v>
       </c>
@@ -4497,8 +4693,11 @@
       <c r="F96" s="5" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G96" s="5" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>28</v>
       </c>
@@ -4517,8 +4716,11 @@
       <c r="F97" s="5" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G97" s="5" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>13</v>
       </c>
@@ -4537,8 +4739,11 @@
       <c r="F98" s="5" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G98" s="5" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>10</v>
       </c>
@@ -4557,8 +4762,11 @@
       <c r="F99" s="5" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G99" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>287</v>
       </c>
@@ -4577,8 +4785,11 @@
       <c r="F100" s="5" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G100" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>5</v>
       </c>
@@ -4597,8 +4808,11 @@
       <c r="F101" s="5" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G101" s="5" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>2</v>
       </c>
@@ -4617,8 +4831,11 @@
       <c r="F102" s="5" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G102" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>30</v>
       </c>
@@ -4637,8 +4854,11 @@
       <c r="F103" s="5" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G103" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>24</v>
       </c>
@@ -4657,8 +4877,11 @@
       <c r="F104" s="5" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G104" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>25</v>
       </c>
@@ -4677,8 +4900,11 @@
       <c r="F105" s="5" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G105" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
         <v>13</v>
       </c>
@@ -4697,8 +4923,11 @@
       <c r="F106" s="5" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G106" s="5" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>1</v>
       </c>
@@ -4717,8 +4946,11 @@
       <c r="F107" s="5" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G107" s="5" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>288</v>
       </c>
@@ -4735,10 +4967,13 @@
         <v>402</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>16</v>
       </c>
@@ -4757,8 +4992,11 @@
       <c r="F109" s="5" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G109" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
         <v>21</v>
       </c>
@@ -4777,8 +5015,11 @@
       <c r="F110" s="5" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G110" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
         <v>3</v>
       </c>
@@ -4797,8 +5038,11 @@
       <c r="F111" s="5" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G111" s="5" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
         <v>0</v>
       </c>
@@ -4815,10 +5059,13 @@
         <v>406</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
         <v>4</v>
       </c>
@@ -4837,8 +5084,11 @@
       <c r="F113" s="5" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G113" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
         <v>587</v>
       </c>
@@ -4857,8 +5107,11 @@
       <c r="F114" s="5" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G114" s="5" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
         <v>15</v>
       </c>
@@ -4877,8 +5130,11 @@
       <c r="F115" s="5" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G115" s="5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
         <v>28</v>
       </c>
@@ -4897,8 +5153,11 @@
       <c r="F116" s="5" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G116" s="5" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
         <v>10</v>
       </c>
@@ -4917,8 +5176,11 @@
       <c r="F117" s="5" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G117" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
         <v>287</v>
       </c>
@@ -4937,8 +5199,11 @@
       <c r="F118" s="5" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G118" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
         <v>5</v>
       </c>
@@ -4957,8 +5222,11 @@
       <c r="F119" s="5" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G119" s="5" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
         <v>2</v>
       </c>
@@ -4977,8 +5245,11 @@
       <c r="F120" s="5" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G120" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
         <v>587</v>
       </c>
@@ -4997,8 +5268,11 @@
       <c r="F121" s="5" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G121" s="5" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
         <v>30</v>
       </c>
@@ -5017,8 +5291,11 @@
       <c r="F122" s="5" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G122" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
         <v>24</v>
       </c>
@@ -5037,8 +5314,11 @@
       <c r="F123" s="5" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G123" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
         <v>16</v>
       </c>
@@ -5057,8 +5337,11 @@
       <c r="F124" s="5" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G124" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
         <v>25</v>
       </c>
@@ -5077,8 +5360,11 @@
       <c r="F125" s="5" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G125" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
         <v>13</v>
       </c>
@@ -5097,8 +5383,11 @@
       <c r="F126" s="5" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G126" s="5" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
         <v>288</v>
       </c>
@@ -5115,10 +5404,13 @@
         <v>421</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
         <v>21</v>
       </c>
@@ -5137,8 +5429,11 @@
       <c r="F128" s="5" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G128" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
         <v>3</v>
       </c>
@@ -5157,8 +5452,11 @@
       <c r="F129" s="5" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G129" s="5" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
         <v>0</v>
       </c>
@@ -5175,10 +5473,13 @@
         <v>424</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
         <v>4</v>
       </c>
@@ -5197,8 +5498,11 @@
       <c r="F131" s="5" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G131" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
         <v>15</v>
       </c>
@@ -5217,8 +5521,11 @@
       <c r="F132" s="5" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G132" s="5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
         <v>28</v>
       </c>
@@ -5237,8 +5544,11 @@
       <c r="F133" s="5" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G133" s="5" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
         <v>1</v>
       </c>
@@ -5257,8 +5567,11 @@
       <c r="F134" s="5" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G134" s="5" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>10</v>
       </c>
@@ -5277,8 +5590,11 @@
       <c r="F135" s="5" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G135" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
         <v>287</v>
       </c>
@@ -5297,8 +5613,11 @@
       <c r="F136" s="5" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G136" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
         <v>21</v>
       </c>
@@ -5317,8 +5636,11 @@
       <c r="F137" s="5" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G137" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
         <v>10</v>
       </c>
@@ -5337,8 +5659,11 @@
       <c r="F138" s="5" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G138" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
         <v>4</v>
       </c>
@@ -5357,8 +5682,11 @@
       <c r="F139" s="5" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G139" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
         <v>287</v>
       </c>
@@ -5377,8 +5705,11 @@
       <c r="F140" s="5" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G140" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
         <v>3</v>
       </c>
@@ -5397,8 +5728,11 @@
       <c r="F141" s="5" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G141" s="5" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
         <v>15</v>
       </c>
@@ -5417,8 +5751,11 @@
       <c r="F142" s="5" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G142" s="5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="8" t="s">
         <v>0</v>
       </c>
@@ -5435,10 +5772,13 @@
         <v>437</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
         <v>1</v>
       </c>
@@ -5457,8 +5797,11 @@
       <c r="F144" s="5" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G144" s="5" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>30</v>
       </c>
@@ -5477,8 +5820,11 @@
       <c r="F145" s="5" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G145" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
         <v>5</v>
       </c>
@@ -5497,8 +5843,11 @@
       <c r="F146" s="5" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G146" s="5" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
         <v>25</v>
       </c>
@@ -5517,8 +5866,11 @@
       <c r="F147" s="5" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G147" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
         <v>24</v>
       </c>
@@ -5537,8 +5889,11 @@
       <c r="F148" s="5" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G148" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
         <v>587</v>
       </c>
@@ -5557,8 +5912,11 @@
       <c r="F149" s="5" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G149" s="5" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
         <v>16</v>
       </c>
@@ -5577,8 +5935,11 @@
       <c r="F150" s="5" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G150" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="7" t="s">
         <v>2</v>
       </c>
@@ -5597,8 +5958,11 @@
       <c r="F151" s="5" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G151" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
         <v>288</v>
       </c>
@@ -5615,10 +5979,13 @@
         <v>446</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="s">
         <v>13</v>
       </c>
@@ -5637,8 +6004,11 @@
       <c r="F153" s="5" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G153" s="5" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
         <v>28</v>
       </c>
@@ -5657,8 +6027,11 @@
       <c r="F154" s="5" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G154" s="5" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
         <v>1</v>
       </c>
@@ -5677,8 +6050,11 @@
       <c r="F155" s="5" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G155" s="5" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="7" t="s">
         <v>30</v>
       </c>
@@ -5697,8 +6073,11 @@
       <c r="F156" s="5" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G156" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="7" t="s">
         <v>21</v>
       </c>
@@ -5717,8 +6096,11 @@
       <c r="F157" s="5" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G157" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="7" t="s">
         <v>10</v>
       </c>
@@ -5737,8 +6119,11 @@
       <c r="F158" s="5" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G158" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
         <v>288</v>
       </c>
@@ -5755,10 +6140,13 @@
         <v>453</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+      <c r="G159" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="7" t="s">
         <v>4</v>
       </c>
@@ -5777,8 +6165,11 @@
       <c r="F160" s="5" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G160" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="s">
         <v>15</v>
       </c>
@@ -5797,8 +6188,11 @@
       <c r="F161" s="5" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G161" s="5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
         <v>3</v>
       </c>
@@ -5817,8 +6211,11 @@
       <c r="F162" s="5" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G162" s="5" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="8" t="s">
         <v>0</v>
       </c>
@@ -5835,10 +6232,13 @@
         <v>457</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+      <c r="G163" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="7" t="s">
         <v>28</v>
       </c>
@@ -5857,8 +6257,11 @@
       <c r="F164" s="5" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G164" s="5" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="s">
         <v>2</v>
       </c>
@@ -5877,8 +6280,11 @@
       <c r="F165" s="5" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G165" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
         <v>13</v>
       </c>
@@ -5897,8 +6303,11 @@
       <c r="F166" s="5" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G166" s="5" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="7" t="s">
         <v>24</v>
       </c>
@@ -5917,8 +6326,11 @@
       <c r="F167" s="5" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G167" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="8" t="s">
         <v>0</v>
       </c>
@@ -5935,10 +6347,13 @@
         <v>462</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+      <c r="G168" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
         <v>25</v>
       </c>
@@ -5957,8 +6372,11 @@
       <c r="F169" s="5" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G169" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="7" t="s">
         <v>587</v>
       </c>
@@ -5977,8 +6395,11 @@
       <c r="F170" s="5" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G170" s="5" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
         <v>287</v>
       </c>
@@ -5997,8 +6418,11 @@
       <c r="F171" s="5" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G171" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
         <v>5</v>
       </c>
@@ -6017,8 +6441,11 @@
       <c r="F172" s="5" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G172" s="5" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="7" t="s">
         <v>21</v>
       </c>
@@ -6037,8 +6464,11 @@
       <c r="F173" s="5" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G173" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
         <v>16</v>
       </c>
@@ -6057,8 +6487,11 @@
       <c r="F174" s="5" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G174" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="7" t="s">
         <v>10</v>
       </c>
@@ -6077,8 +6510,11 @@
       <c r="F175" s="5" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G175" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="7" t="s">
         <v>15</v>
       </c>
@@ -6097,8 +6533,11 @@
       <c r="F176" s="5" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G176" s="5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
         <v>288</v>
       </c>
@@ -6115,10 +6554,13 @@
         <v>471</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+      <c r="G177" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="5" t="s">
         <v>3</v>
       </c>
@@ -6137,8 +6579,11 @@
       <c r="F178" s="5" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G178" s="5" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="7" t="s">
         <v>30</v>
       </c>
@@ -6157,8 +6602,11 @@
       <c r="F179" s="5" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G179" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
         <v>1</v>
       </c>
@@ -6177,8 +6625,11 @@
       <c r="F180" s="5" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G180" s="5" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
         <v>4</v>
       </c>
@@ -6197,8 +6648,11 @@
       <c r="F181" s="5" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G181" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
         <v>287</v>
       </c>
@@ -6217,8 +6671,11 @@
       <c r="F182" s="5" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G182" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="8" t="s">
         <v>587</v>
       </c>
@@ -6237,8 +6694,11 @@
       <c r="F183" s="5" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G183" s="5" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="8" t="s">
         <v>0</v>
       </c>
@@ -6255,10 +6715,13 @@
         <v>478</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+      <c r="G184" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
         <v>5</v>
       </c>
@@ -6277,8 +6740,11 @@
       <c r="F185" s="5" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G185" s="5" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="7" t="s">
         <v>24</v>
       </c>
@@ -6297,8 +6763,11 @@
       <c r="F186" s="5" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G186" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="7" t="s">
         <v>13</v>
       </c>
@@ -6317,8 +6786,11 @@
       <c r="F187" s="5" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G187" s="5" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="7" t="s">
         <v>2</v>
       </c>
@@ -6337,8 +6809,11 @@
       <c r="F188" s="5" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G188" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
         <v>28</v>
       </c>
@@ -6357,8 +6832,11 @@
       <c r="F189" s="5" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G189" s="5" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="5" t="s">
         <v>25</v>
       </c>
@@ -6377,8 +6855,11 @@
       <c r="F190" s="5" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G190" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="7" t="s">
         <v>4</v>
       </c>
@@ -6397,8 +6878,11 @@
       <c r="F191" s="5" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G191" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
         <v>3</v>
       </c>
@@ -6417,8 +6901,11 @@
       <c r="F192" s="5" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G192" s="5" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
         <v>288</v>
       </c>
@@ -6435,10 +6922,13 @@
         <v>487</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+      <c r="G193" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
         <v>10</v>
       </c>
@@ -6457,8 +6947,11 @@
       <c r="F194" s="5" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G194" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="7" t="s">
         <v>16</v>
       </c>
@@ -6477,8 +6970,11 @@
       <c r="F195" s="5" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G195" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="7" t="s">
         <v>15</v>
       </c>
@@ -6497,8 +6993,11 @@
       <c r="F196" s="5" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G196" s="5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
         <v>5</v>
       </c>
@@ -6517,8 +7016,11 @@
       <c r="F197" s="5" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G197" s="5" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="7" t="s">
         <v>30</v>
       </c>
@@ -6537,8 +7039,11 @@
       <c r="F198" s="5" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G198" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
         <v>1</v>
       </c>
@@ -6557,8 +7062,11 @@
       <c r="F199" s="5" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G199" s="5" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
         <v>287</v>
       </c>
@@ -6577,8 +7085,11 @@
       <c r="F200" s="5" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G200" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="5" t="s">
         <v>24</v>
       </c>
@@ -6597,8 +7108,11 @@
       <c r="F201" s="5" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G201" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="8" t="s">
         <v>587</v>
       </c>
@@ -6617,8 +7131,11 @@
       <c r="F202" s="5" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G202" s="5" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="7" t="s">
         <v>21</v>
       </c>
@@ -6637,8 +7154,11 @@
       <c r="F203" s="5" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G203" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="7" t="s">
         <v>2</v>
       </c>
@@ -6657,8 +7177,11 @@
       <c r="F204" s="5" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G204" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="7" t="s">
         <v>13</v>
       </c>
@@ -6677,8 +7200,11 @@
       <c r="F205" s="5" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G205" s="5" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="7" t="s">
         <v>4</v>
       </c>
@@ -6697,8 +7223,11 @@
       <c r="F206" s="5" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G206" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="8" t="s">
         <v>0</v>
       </c>
@@ -6715,10 +7244,13 @@
         <v>501</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+      <c r="G207" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="7" t="s">
         <v>28</v>
       </c>
@@ -6737,8 +7269,11 @@
       <c r="F208" s="5" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G208" s="5" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="5" t="s">
         <v>3</v>
       </c>
@@ -6757,8 +7292,11 @@
       <c r="F209" s="5" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G209" s="5" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="5" t="s">
         <v>1</v>
       </c>
@@ -6777,8 +7315,11 @@
       <c r="F210" s="5" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G210" s="5" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="7" t="s">
         <v>5</v>
       </c>
@@ -6797,8 +7338,11 @@
       <c r="F211" s="5" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G211" s="5" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
         <v>10</v>
       </c>
@@ -6817,8 +7361,11 @@
       <c r="F212" s="5" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G212" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="5" t="s">
         <v>288</v>
       </c>
@@ -6835,10 +7382,13 @@
         <v>507</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+      <c r="G213" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
         <v>25</v>
       </c>
@@ -6857,8 +7407,11 @@
       <c r="F214" s="5" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G214" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="7" t="s">
         <v>16</v>
       </c>
@@ -6877,8 +7430,11 @@
       <c r="F215" s="5" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G215" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="7" t="s">
         <v>15</v>
       </c>
@@ -6897,8 +7453,11 @@
       <c r="F216" s="5" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G216" s="5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="7" t="s">
         <v>30</v>
       </c>
@@ -6917,8 +7476,11 @@
       <c r="F217" s="5" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G217" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="7" t="s">
         <v>4</v>
       </c>
@@ -6937,8 +7499,11 @@
       <c r="F218" s="5" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G218" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="7" t="s">
         <v>13</v>
       </c>
@@ -6957,8 +7522,11 @@
       <c r="F219" s="5" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G219" s="5" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
         <v>28</v>
       </c>
@@ -6977,8 +7545,11 @@
       <c r="F220" s="5" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G220" s="5" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="5" t="s">
         <v>287</v>
       </c>
@@ -6997,8 +7568,11 @@
       <c r="F221" s="5" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G221" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="8" t="s">
         <v>587</v>
       </c>
@@ -7017,8 +7591,11 @@
       <c r="F222" s="5" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G222" s="5" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="7" t="s">
         <v>2</v>
       </c>
@@ -7037,8 +7614,11 @@
       <c r="F223" s="5" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G223" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="7" t="s">
         <v>24</v>
       </c>
@@ -7057,8 +7637,11 @@
       <c r="F224" s="5" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G224" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="7" t="s">
         <v>21</v>
       </c>
@@ -7077,8 +7660,11 @@
       <c r="F225" s="5" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G225" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="8" t="s">
         <v>0</v>
       </c>
@@ -7095,10 +7681,13 @@
         <v>520</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+      <c r="G226" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="s">
         <v>30</v>
       </c>
@@ -7117,8 +7706,11 @@
       <c r="F227" s="5" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G227" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="7" t="s">
         <v>10</v>
       </c>
@@ -7137,8 +7729,11 @@
       <c r="F228" s="5" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G228" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="s">
         <v>16</v>
       </c>
@@ -7157,8 +7752,11 @@
       <c r="F229" s="5" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G229" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="7" t="s">
         <v>24</v>
       </c>
@@ -7177,8 +7775,11 @@
       <c r="F230" s="5" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G230" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="7" t="s">
         <v>15</v>
       </c>
@@ -7197,8 +7798,11 @@
       <c r="F231" s="5" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G231" s="5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="7" t="s">
         <v>5</v>
       </c>
@@ -7217,8 +7821,11 @@
       <c r="F232" s="5" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G232" s="5" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="5" t="s">
         <v>1</v>
       </c>
@@ -7237,8 +7844,11 @@
       <c r="F233" s="5" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G233" s="5" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="5" t="s">
         <v>288</v>
       </c>
@@ -7255,10 +7865,13 @@
         <v>528</v>
       </c>
       <c r="F234" s="5" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+      <c r="G234" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="5" t="s">
         <v>25</v>
       </c>
@@ -7277,8 +7890,11 @@
       <c r="F235" s="5" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G235" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="7" t="s">
         <v>28</v>
       </c>
@@ -7297,8 +7913,11 @@
       <c r="F236" s="5" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G236" s="5" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="8" t="s">
         <v>0</v>
       </c>
@@ -7315,10 +7934,13 @@
         <v>531</v>
       </c>
       <c r="F237" s="5" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+      <c r="G237" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="7" t="s">
         <v>4</v>
       </c>
@@ -7337,8 +7959,11 @@
       <c r="F238" s="5" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G238" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="5" t="s">
         <v>3</v>
       </c>
@@ -7357,8 +7982,11 @@
       <c r="F239" s="5" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G239" s="5" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="7" t="s">
         <v>13</v>
       </c>
@@ -7377,8 +8005,11 @@
       <c r="F240" s="5" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G240" s="5" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="7" t="s">
         <v>10</v>
       </c>
@@ -7397,8 +8028,11 @@
       <c r="F241" s="5" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G241" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="8" t="s">
         <v>587</v>
       </c>
@@ -7417,8 +8051,11 @@
       <c r="F242" s="5" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G242" s="5" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="7" t="s">
         <v>21</v>
       </c>
@@ -7437,8 +8074,11 @@
       <c r="F243" s="5" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G243" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
         <v>287</v>
       </c>
@@ -7457,8 +8097,11 @@
       <c r="F244" s="5" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G244" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="5" t="s">
         <v>288</v>
       </c>
@@ -7475,10 +8118,13 @@
         <v>539</v>
       </c>
       <c r="F245" s="5" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+      <c r="G245" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="5" t="s">
         <v>1</v>
       </c>
@@ -7497,8 +8143,11 @@
       <c r="F246" s="5" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G246" s="5" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="7" t="s">
         <v>30</v>
       </c>
@@ -7517,8 +8166,11 @@
       <c r="F247" s="5" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G247" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="7" t="s">
         <v>16</v>
       </c>
@@ -7537,8 +8189,11 @@
       <c r="F248" s="5" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G248" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="7" t="s">
         <v>24</v>
       </c>
@@ -7557,8 +8212,11 @@
       <c r="F249" s="5" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G249" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="5" t="s">
         <v>25</v>
       </c>
@@ -7577,8 +8235,11 @@
       <c r="F250" s="5" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G250" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="7" t="s">
         <v>2</v>
       </c>
@@ -7597,8 +8258,11 @@
       <c r="F251" s="5" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G251" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="7" t="s">
         <v>15</v>
       </c>
@@ -7617,8 +8281,11 @@
       <c r="F252" s="5" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G252" s="5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="7" t="s">
         <v>5</v>
       </c>
@@ -7637,8 +8304,11 @@
       <c r="F253" s="5" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G253" s="5" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="7" t="s">
         <v>4</v>
       </c>
@@ -7657,8 +8327,11 @@
       <c r="F254" s="5" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G254" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="8" t="s">
         <v>587</v>
       </c>
@@ -7677,8 +8350,11 @@
       <c r="F255" s="5" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G255" s="5" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="5" t="s">
         <v>3</v>
       </c>
@@ -7697,8 +8373,11 @@
       <c r="F256" s="5" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G256" s="5" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="7" t="s">
         <v>28</v>
       </c>
@@ -7717,8 +8396,11 @@
       <c r="F257" s="5" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G257" s="5" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="8" t="s">
         <v>0</v>
       </c>
@@ -7735,10 +8417,13 @@
         <v>552</v>
       </c>
       <c r="F258" s="5" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+      <c r="G258" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="5" t="s">
         <v>287</v>
       </c>
@@ -7757,8 +8442,11 @@
       <c r="F259" s="5" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G259" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="7" t="s">
         <v>10</v>
       </c>
@@ -7777,8 +8465,11 @@
       <c r="F260" s="5" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G260" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="7" t="s">
         <v>15</v>
       </c>
@@ -7797,8 +8488,11 @@
       <c r="F261" s="5" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G261" s="5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="7" t="s">
         <v>21</v>
       </c>
@@ -7817,8 +8511,11 @@
       <c r="F262" s="5" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G262" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="7" t="s">
         <v>24</v>
       </c>
@@ -7837,8 +8534,11 @@
       <c r="F263" s="5" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G263" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="5" t="s">
         <v>288</v>
       </c>
@@ -7855,10 +8555,13 @@
         <v>558</v>
       </c>
       <c r="F264" s="5" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+      <c r="G264" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="7" t="s">
         <v>5</v>
       </c>
@@ -7877,8 +8580,11 @@
       <c r="F265" s="5" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G265" s="5" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="5" t="s">
         <v>25</v>
       </c>
@@ -7897,8 +8603,11 @@
       <c r="F266" s="5" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G266" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="7" t="s">
         <v>13</v>
       </c>
@@ -7917,8 +8626,11 @@
       <c r="F267" s="5" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G267" s="5" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="5" t="s">
         <v>1</v>
       </c>
@@ -7937,8 +8649,11 @@
       <c r="F268" s="5" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G268" s="5" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="7" t="s">
         <v>2</v>
       </c>
@@ -7957,8 +8672,11 @@
       <c r="F269" s="5" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G269" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="7" t="s">
         <v>30</v>
       </c>
@@ -7977,8 +8695,11 @@
       <c r="F270" s="5" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G270" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="7" t="s">
         <v>16</v>
       </c>
@@ -7997,8 +8718,11 @@
       <c r="F271" s="5" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G271" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="7" t="s">
         <v>15</v>
       </c>
@@ -8017,8 +8741,11 @@
       <c r="F272" s="5" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G272" s="5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="7" t="s">
         <v>21</v>
       </c>
@@ -8037,8 +8764,11 @@
       <c r="F273" s="5" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G273" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="7" t="s">
         <v>28</v>
       </c>
@@ -8057,8 +8787,11 @@
       <c r="F274" s="5" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G274" s="5" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="5" t="s">
         <v>1</v>
       </c>
@@ -8077,8 +8810,11 @@
       <c r="F275" s="5" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G275" s="5" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="5" t="s">
         <v>287</v>
       </c>
@@ -8097,8 +8833,11 @@
       <c r="F276" s="5" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G276" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="5" t="s">
         <v>3</v>
       </c>
@@ -8117,8 +8856,11 @@
       <c r="F277" s="5" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G277" s="5" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="7" t="s">
         <v>10</v>
       </c>
@@ -8137,8 +8879,11 @@
       <c r="F278" s="5" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G278" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="8" t="s">
         <v>0</v>
       </c>
@@ -8155,10 +8900,13 @@
         <v>573</v>
       </c>
       <c r="F279" s="5" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+      <c r="G279" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="7" t="s">
         <v>4</v>
       </c>
@@ -8177,8 +8925,11 @@
       <c r="F280" s="5" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G280" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="5" t="s">
         <v>25</v>
       </c>
@@ -8197,8 +8948,11 @@
       <c r="F281" s="5" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G281" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="7" t="s">
         <v>5</v>
       </c>
@@ -8217,8 +8971,11 @@
       <c r="F282" s="5" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G282" s="5" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="8" t="s">
         <v>587</v>
       </c>
@@ -8237,8 +8994,11 @@
       <c r="F283" s="5" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="284" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G283" s="5" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="7" t="s">
         <v>24</v>
       </c>
@@ -8257,8 +9017,11 @@
       <c r="F284" s="5" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G284" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="7" t="s">
         <v>30</v>
       </c>
@@ -8277,8 +9040,11 @@
       <c r="F285" s="5" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="286" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G285" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="7" t="s">
         <v>13</v>
       </c>
@@ -8297,8 +9063,11 @@
       <c r="F286" s="5" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="287" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G286" s="5" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="7" t="s">
         <v>16</v>
       </c>
@@ -8317,8 +9086,11 @@
       <c r="F287" s="5" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="288" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G287" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="5" t="s">
         <v>288</v>
       </c>
@@ -8335,10 +9107,13 @@
         <v>582</v>
       </c>
       <c r="F288" s="5" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+      <c r="G288" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="7" t="s">
         <v>2</v>
       </c>
@@ -8356,6 +9131,9 @@
       </c>
       <c r="F289" s="5" t="s">
         <v>584</v>
+      </c>
+      <c r="G289" s="5" t="s">
+        <v>640</v>
       </c>
     </row>
   </sheetData>

--- a/02_Datasets/internal-data.xlsx
+++ b/02_Datasets/internal-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/452190af13fbfd69/Documents/3_IES/8-Semestr/Data Analysis in Python/Python_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="675" documentId="8_{534CA496-1AC6-5749-A256-08ECE197E3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{035A7A5D-42C4-9942-AB5F-A9952F9EC49B}"/>
+  <xr:revisionPtr revIDLastSave="680" documentId="8_{534CA496-1AC6-5749-A256-08ECE197E3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2185FE7-3687-DF41-8372-5B5854204DB9}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{FE8946BB-4C5C-9C45-AE5D-68187B7683CC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="649">
   <si>
     <t>Munich</t>
   </si>
@@ -1611,9 +1611,6 @@
     <t>A-p33317</t>
   </si>
   <si>
-    <t>A-p186546</t>
-  </si>
-  <si>
     <t>A-p36311</t>
   </si>
   <si>
@@ -1659,9 +1656,6 @@
     <t>flight.Code</t>
   </si>
   <si>
-    <t>MUN</t>
-  </si>
-  <si>
     <t>LEJ</t>
   </si>
   <si>
@@ -1671,9 +1665,6 @@
     <t>MHG</t>
   </si>
   <si>
-    <t>SXB</t>
-  </si>
-  <si>
     <t>BWE</t>
   </si>
   <si>
@@ -1990,6 +1981,12 @@
   </si>
   <si>
     <t>bundes099</t>
+  </si>
+  <si>
+    <t>MUC</t>
+  </si>
+  <si>
+    <t>-p35464</t>
   </si>
 </sst>
 </file>
@@ -2056,32 +2053,32 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2429,7 +2426,7 @@
   <dimension ref="A1:H289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D289"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2463,12 +2460,12 @@
         <v>486</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B2" s="5">
         <v>45549</v>
@@ -2486,13 +2483,13 @@
         <v>487</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B3" s="5">
         <v>45549</v>
@@ -2510,13 +2507,13 @@
         <v>485</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B4" s="5">
         <v>45549</v>
@@ -2534,13 +2531,13 @@
         <v>522</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B5" s="5">
         <v>45549</v>
@@ -2555,16 +2552,16 @@
         <v>289</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>523</v>
+        <v>648</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B6" s="5">
         <v>45549</v>
@@ -2579,16 +2576,16 @@
         <v>17</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B7" s="5">
         <v>45549</v>
@@ -2603,16 +2600,16 @@
         <v>29</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B8" s="5">
         <v>45549</v>
@@ -2627,16 +2624,16 @@
         <v>26</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B9" s="5">
         <v>45549</v>
@@ -2651,15 +2648,15 @@
         <v>14</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B10" s="5">
         <v>45549</v>
@@ -2674,16 +2671,16 @@
         <v>290</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B11" s="5">
         <v>45556</v>
@@ -2698,15 +2695,15 @@
         <v>22</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B12" s="5">
         <v>45556</v>
@@ -2721,16 +2718,16 @@
         <v>18</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B13" s="5">
         <v>45556</v>
@@ -2745,15 +2742,15 @@
         <v>291</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B14" s="5">
         <v>45556</v>
@@ -2768,16 +2765,16 @@
         <v>31</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B15" s="5">
         <v>45556</v>
@@ -2792,16 +2789,16 @@
         <v>292</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B16" s="5">
         <v>45556</v>
@@ -2816,16 +2813,16 @@
         <v>17</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B17" s="5">
         <v>45556</v>
@@ -2840,15 +2837,15 @@
         <v>23</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B18" s="5">
         <v>45556</v>
@@ -2863,16 +2860,16 @@
         <v>11</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B19" s="5">
         <v>45556</v>
@@ -2887,15 +2884,15 @@
         <v>293</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B20" s="5">
         <v>45563</v>
@@ -2910,16 +2907,16 @@
         <v>12</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B21" s="5">
         <v>45563</v>
@@ -2937,12 +2934,12 @@
         <v>487</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B22" s="5">
         <v>45563</v>
@@ -2960,12 +2957,12 @@
         <v>485</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B23" s="5">
         <v>45563</v>
@@ -2983,12 +2980,12 @@
         <v>522</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B24" s="5">
         <v>45563</v>
@@ -3003,15 +3000,15 @@
         <v>289</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>523</v>
+        <v>648</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B25" s="5">
         <v>45563</v>
@@ -3026,15 +3023,15 @@
         <v>29</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B26" s="5">
         <v>45563</v>
@@ -3049,15 +3046,15 @@
         <v>26</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B27" s="5">
         <v>45563</v>
@@ -3072,15 +3069,15 @@
         <v>14</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B28" s="5">
         <v>45563</v>
@@ -3095,15 +3092,15 @@
         <v>290</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B29" s="5">
         <v>45570</v>
@@ -3118,15 +3115,15 @@
         <v>22</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B30" s="5">
         <v>45570</v>
@@ -3141,15 +3138,15 @@
         <v>18</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B31" s="5">
         <v>45570</v>
@@ -3164,15 +3161,15 @@
         <v>291</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B32" s="5">
         <v>45570</v>
@@ -3187,15 +3184,15 @@
         <v>31</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B33" s="5">
         <v>45570</v>
@@ -3210,15 +3207,15 @@
         <v>292</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B34" s="5">
         <v>45570</v>
@@ -3233,15 +3230,15 @@
         <v>17</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B35" s="5">
         <v>45570</v>
@@ -3256,15 +3253,15 @@
         <v>23</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B36" s="5">
         <v>45570</v>
@@ -3279,15 +3276,15 @@
         <v>11</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B37" s="5">
         <v>45570</v>
@@ -3302,15 +3299,15 @@
         <v>293</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B38" s="5">
         <v>45584</v>
@@ -3325,15 +3322,15 @@
         <v>22</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B39" s="5">
         <v>45584</v>
@@ -3348,15 +3345,15 @@
         <v>12</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B40" s="5">
         <v>45584</v>
@@ -3374,12 +3371,12 @@
         <v>485</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B41" s="5">
         <v>45584</v>
@@ -3397,12 +3394,12 @@
         <v>522</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B42" s="5">
         <v>45584</v>
@@ -3417,15 +3414,15 @@
         <v>289</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>523</v>
+        <v>648</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B43" s="5">
         <v>45584</v>
@@ -3440,15 +3437,15 @@
         <v>29</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B44" s="5">
         <v>45584</v>
@@ -3463,15 +3460,15 @@
         <v>26</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B45" s="5">
         <v>45584</v>
@@ -3486,15 +3483,15 @@
         <v>14</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B46" s="5">
         <v>45584</v>
@@ -3509,15 +3506,15 @@
         <v>290</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B47" s="5">
         <v>45591</v>
@@ -3532,15 +3529,15 @@
         <v>18</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B48" s="5">
         <v>45591</v>
@@ -3558,12 +3555,12 @@
         <v>487</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B49" s="5">
         <v>45591</v>
@@ -3578,15 +3575,15 @@
         <v>31</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B50" s="5">
         <v>45591</v>
@@ -3601,15 +3598,15 @@
         <v>292</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B51" s="5">
         <v>45591</v>
@@ -3624,15 +3621,15 @@
         <v>17</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B52" s="5">
         <v>45591</v>
@@ -3647,15 +3644,15 @@
         <v>26</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B53" s="5">
         <v>45591</v>
@@ -3670,15 +3667,15 @@
         <v>23</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B54" s="5">
         <v>45591</v>
@@ -3693,15 +3690,15 @@
         <v>11</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B55" s="5">
         <v>45591</v>
@@ -3716,15 +3713,15 @@
         <v>293</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B56" s="5">
         <v>45598</v>
@@ -3739,15 +3736,15 @@
         <v>22</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B57" s="5">
         <v>45598</v>
@@ -3762,15 +3759,15 @@
         <v>12</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B58" s="5">
         <v>45598</v>
@@ -3788,12 +3785,12 @@
         <v>485</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B59" s="5">
         <v>45598</v>
@@ -3808,15 +3805,15 @@
         <v>291</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B60" s="5">
         <v>45598</v>
@@ -3834,12 +3831,12 @@
         <v>522</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B61" s="5">
         <v>45598</v>
@@ -3854,15 +3851,15 @@
         <v>289</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>523</v>
+        <v>648</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B62" s="5">
         <v>45598</v>
@@ -3877,15 +3874,15 @@
         <v>29</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B63" s="5">
         <v>45598</v>
@@ -3900,15 +3897,15 @@
         <v>14</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B64" s="5">
         <v>45598</v>
@@ -3923,15 +3920,15 @@
         <v>290</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B65" s="5">
         <v>45605</v>
@@ -3946,15 +3943,15 @@
         <v>18</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B66" s="5">
         <v>45605</v>
@@ -3972,12 +3969,12 @@
         <v>487</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B67" s="5">
         <v>45605</v>
@@ -3992,15 +3989,15 @@
         <v>31</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B68" s="5">
         <v>45605</v>
@@ -4015,15 +4012,15 @@
         <v>292</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B69" s="5">
         <v>45605</v>
@@ -4038,15 +4035,15 @@
         <v>17</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B70" s="5">
         <v>45605</v>
@@ -4061,15 +4058,15 @@
         <v>26</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B71" s="5">
         <v>45605</v>
@@ -4084,15 +4081,15 @@
         <v>23</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="72" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B72" s="5">
         <v>45605</v>
@@ -4107,15 +4104,15 @@
         <v>11</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="73" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B73" s="5">
         <v>45605</v>
@@ -4130,15 +4127,15 @@
         <v>293</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="74" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B74" s="5">
         <v>45619</v>
@@ -4153,15 +4150,15 @@
         <v>22</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="75" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B75" s="5">
         <v>45619</v>
@@ -4176,15 +4173,15 @@
         <v>18</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="76" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B76" s="5">
         <v>45619</v>
@@ -4199,15 +4196,15 @@
         <v>12</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="77" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B77" s="5">
         <v>45619</v>
@@ -4225,12 +4222,12 @@
         <v>485</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="78" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B78" s="5">
         <v>45619</v>
@@ -4245,15 +4242,15 @@
         <v>291</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B79" s="5">
         <v>45619</v>
@@ -4271,12 +4268,12 @@
         <v>522</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="80" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B80" s="5">
         <v>45619</v>
@@ -4291,15 +4288,15 @@
         <v>29</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="81" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B81" s="5">
         <v>45619</v>
@@ -4314,15 +4311,15 @@
         <v>14</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="82" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B82" s="5">
         <v>45619</v>
@@ -4337,15 +4334,15 @@
         <v>290</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="83" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B83" s="5">
         <v>45626</v>
@@ -4363,12 +4360,12 @@
         <v>487</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="84" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B84" s="5">
         <v>45626</v>
@@ -4386,12 +4383,12 @@
         <v>485</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="85" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B85" s="5">
         <v>45626</v>
@@ -4406,15 +4403,15 @@
         <v>31</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="86" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B86" s="5">
         <v>45626</v>
@@ -4429,15 +4426,15 @@
         <v>292</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="87" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B87" s="5">
         <v>45626</v>
@@ -4452,15 +4449,15 @@
         <v>289</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>523</v>
+        <v>648</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B88" s="5">
         <v>45626</v>
@@ -4475,15 +4472,15 @@
         <v>17</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="89" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B89" s="5">
         <v>45626</v>
@@ -4498,15 +4495,15 @@
         <v>26</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="90" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B90" s="5">
         <v>45626</v>
@@ -4521,15 +4518,15 @@
         <v>23</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="91" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B91" s="5">
         <v>45626</v>
@@ -4544,15 +4541,15 @@
         <v>293</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="92" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B92" s="5">
         <v>45633</v>
@@ -4567,15 +4564,15 @@
         <v>22</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="93" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B93" s="5">
         <v>45633</v>
@@ -4590,15 +4587,15 @@
         <v>18</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="94" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B94" s="5">
         <v>45633</v>
@@ -4613,15 +4610,15 @@
         <v>12</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="95" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B95" s="5">
         <v>45633</v>
@@ -4636,15 +4633,15 @@
         <v>291</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="96" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B96" s="5">
         <v>45633</v>
@@ -4662,12 +4659,12 @@
         <v>522</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="97" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B97" s="5">
         <v>45633</v>
@@ -4682,15 +4679,15 @@
         <v>29</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="98" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B98" s="5">
         <v>45633</v>
@@ -4705,15 +4702,15 @@
         <v>14</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="99" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B99" s="5">
         <v>45633</v>
@@ -4728,15 +4725,15 @@
         <v>11</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="100" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B100" s="5">
         <v>45633</v>
@@ -4751,10 +4748,10 @@
         <v>290</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="101" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4777,7 +4774,7 @@
         <v>487</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="102" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4800,7 +4797,7 @@
         <v>485</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="103" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4820,10 +4817,10 @@
         <v>31</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="104" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4843,10 +4840,10 @@
         <v>289</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>523</v>
+        <v>648</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="105" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4866,10 +4863,10 @@
         <v>26</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="106" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4889,10 +4886,10 @@
         <v>14</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="107" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4912,10 +4909,10 @@
         <v>23</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="108" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4935,10 +4932,10 @@
         <v>293</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="109" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4958,10 +4955,10 @@
         <v>17</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="110" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4981,10 +4978,10 @@
         <v>22</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="111" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5004,10 +5001,10 @@
         <v>18</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="112" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5027,10 +5024,10 @@
         <v>12</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="113" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5050,10 +5047,10 @@
         <v>291</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="114" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5076,7 +5073,7 @@
         <v>522</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="115" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5096,10 +5093,10 @@
         <v>292</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="116" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5119,10 +5116,10 @@
         <v>29</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="117" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5142,10 +5139,10 @@
         <v>11</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="118" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5165,10 +5162,10 @@
         <v>290</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="119" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5191,7 +5188,7 @@
         <v>487</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="120" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5214,7 +5211,7 @@
         <v>485</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="121" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5237,7 +5234,7 @@
         <v>522</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="122" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5257,10 +5254,10 @@
         <v>31</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="123" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5280,10 +5277,10 @@
         <v>289</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>523</v>
+        <v>648</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="124" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5303,10 +5300,10 @@
         <v>17</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="125" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5326,10 +5323,10 @@
         <v>26</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="126" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5349,10 +5346,10 @@
         <v>14</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="127" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5372,10 +5369,10 @@
         <v>293</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="128" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5395,10 +5392,10 @@
         <v>22</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="129" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5418,10 +5415,10 @@
         <v>18</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="130" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5441,10 +5438,10 @@
         <v>12</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="131" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5464,10 +5461,10 @@
         <v>291</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="132" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5487,10 +5484,10 @@
         <v>292</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="133" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5510,10 +5507,10 @@
         <v>29</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="134" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5533,10 +5530,10 @@
         <v>23</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="135" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5556,10 +5553,10 @@
         <v>11</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="136" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5579,10 +5576,10 @@
         <v>290</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="137" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5602,10 +5599,10 @@
         <v>22</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="138" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5625,10 +5622,10 @@
         <v>11</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="139" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5648,10 +5645,10 @@
         <v>291</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="140" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5671,10 +5668,10 @@
         <v>290</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="141" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5694,10 +5691,10 @@
         <v>18</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="142" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5717,10 +5714,10 @@
         <v>292</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="143" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5740,10 +5737,10 @@
         <v>12</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="144" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5763,10 +5760,10 @@
         <v>23</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="145" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5786,10 +5783,10 @@
         <v>31</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="146" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5812,7 +5809,7 @@
         <v>487</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="147" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5832,10 +5829,10 @@
         <v>26</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="148" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5855,10 +5852,10 @@
         <v>289</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>523</v>
+        <v>648</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="149" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5881,7 +5878,7 @@
         <v>522</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="150" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5901,10 +5898,10 @@
         <v>17</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="151" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5927,7 +5924,7 @@
         <v>485</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="152" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5947,10 +5944,10 @@
         <v>293</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="153" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5970,10 +5967,10 @@
         <v>14</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="154" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5993,10 +5990,10 @@
         <v>29</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="155" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6016,10 +6013,10 @@
         <v>23</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="156" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6039,10 +6036,10 @@
         <v>31</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="157" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6062,10 +6059,10 @@
         <v>22</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="158" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6085,10 +6082,10 @@
         <v>11</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="159" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6108,10 +6105,10 @@
         <v>293</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="160" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6131,10 +6128,10 @@
         <v>291</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="161" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6154,10 +6151,10 @@
         <v>292</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="162" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6177,10 +6174,10 @@
         <v>18</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="163" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6200,10 +6197,10 @@
         <v>12</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="164" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6223,10 +6220,10 @@
         <v>29</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="165" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6249,7 +6246,7 @@
         <v>485</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="166" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6269,10 +6266,10 @@
         <v>14</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="167" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6292,10 +6289,10 @@
         <v>289</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>523</v>
+        <v>648</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="168" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6315,10 +6312,10 @@
         <v>12</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G168" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="169" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6338,10 +6335,10 @@
         <v>26</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G169" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="170" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6364,7 +6361,7 @@
         <v>522</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="171" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6384,10 +6381,10 @@
         <v>290</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="172" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6410,7 +6407,7 @@
         <v>487</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="173" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6430,10 +6427,10 @@
         <v>22</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="174" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6453,10 +6450,10 @@
         <v>17</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="175" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6476,10 +6473,10 @@
         <v>11</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="176" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6499,10 +6496,10 @@
         <v>292</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G176" s="6" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="177" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6522,10 +6519,10 @@
         <v>293</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G177" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="178" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6545,10 +6542,10 @@
         <v>18</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="179" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6568,10 +6565,10 @@
         <v>31</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="180" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6591,10 +6588,10 @@
         <v>23</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="181" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6614,10 +6611,10 @@
         <v>291</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="182" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6637,10 +6634,10 @@
         <v>290</v>
       </c>
       <c r="F182" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="183" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6663,7 +6660,7 @@
         <v>522</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="184" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6683,10 +6680,10 @@
         <v>12</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="185" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6709,7 +6706,7 @@
         <v>487</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="186" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6729,10 +6726,10 @@
         <v>289</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>523</v>
+        <v>648</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="187" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6752,10 +6749,10 @@
         <v>14</v>
       </c>
       <c r="F187" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G187" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="188" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6778,7 +6775,7 @@
         <v>485</v>
       </c>
       <c r="G188" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="189" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6798,10 +6795,10 @@
         <v>29</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G189" s="6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="190" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6821,10 +6818,10 @@
         <v>26</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="191" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6844,10 +6841,10 @@
         <v>291</v>
       </c>
       <c r="F191" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G191" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="192" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6867,10 +6864,10 @@
         <v>18</v>
       </c>
       <c r="F192" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G192" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="193" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6890,10 +6887,10 @@
         <v>293</v>
       </c>
       <c r="F193" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G193" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="194" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6913,10 +6910,10 @@
         <v>11</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G194" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="195" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6936,10 +6933,10 @@
         <v>17</v>
       </c>
       <c r="F195" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G195" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="196" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6959,10 +6956,10 @@
         <v>292</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G196" s="6" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="197" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6985,7 +6982,7 @@
         <v>487</v>
       </c>
       <c r="G197" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="198" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7005,10 +7002,10 @@
         <v>31</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G198" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="199" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7028,10 +7025,10 @@
         <v>23</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G199" s="6" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="200" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7051,10 +7048,10 @@
         <v>290</v>
       </c>
       <c r="F200" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G200" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="201" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7074,10 +7071,10 @@
         <v>294</v>
       </c>
       <c r="F201" s="6" t="s">
-        <v>523</v>
+        <v>648</v>
       </c>
       <c r="G201" s="6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="202" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7100,7 +7097,7 @@
         <v>522</v>
       </c>
       <c r="G202" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="203" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7120,10 +7117,10 @@
         <v>22</v>
       </c>
       <c r="F203" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G203" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="204" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7146,7 +7143,7 @@
         <v>485</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="205" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7166,10 +7163,10 @@
         <v>14</v>
       </c>
       <c r="F205" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G205" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="206" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7189,10 +7186,10 @@
         <v>291</v>
       </c>
       <c r="F206" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G206" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="207" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7212,10 +7209,10 @@
         <v>12</v>
       </c>
       <c r="F207" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G207" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="208" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7235,10 +7232,10 @@
         <v>29</v>
       </c>
       <c r="F208" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G208" s="6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="209" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7258,10 +7255,10 @@
         <v>18</v>
       </c>
       <c r="F209" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G209" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="210" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7281,10 +7278,10 @@
         <v>23</v>
       </c>
       <c r="F210" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G210" s="6" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="211" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7307,7 +7304,7 @@
         <v>487</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="212" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7327,10 +7324,10 @@
         <v>11</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="213" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7350,10 +7347,10 @@
         <v>293</v>
       </c>
       <c r="F213" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="214" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7373,10 +7370,10 @@
         <v>26</v>
       </c>
       <c r="F214" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G214" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="215" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7396,10 +7393,10 @@
         <v>17</v>
       </c>
       <c r="F215" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G215" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="216" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7419,10 +7416,10 @@
         <v>292</v>
       </c>
       <c r="F216" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G216" s="6" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="217" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7442,10 +7439,10 @@
         <v>31</v>
       </c>
       <c r="F217" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G217" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="218" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7465,10 +7462,10 @@
         <v>291</v>
       </c>
       <c r="F218" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G218" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="219" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7488,10 +7485,10 @@
         <v>14</v>
       </c>
       <c r="F219" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G219" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="220" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7511,10 +7508,10 @@
         <v>29</v>
       </c>
       <c r="F220" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G220" s="6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="221" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7534,10 +7531,10 @@
         <v>290</v>
       </c>
       <c r="F221" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G221" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="222" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7560,7 +7557,7 @@
         <v>522</v>
       </c>
       <c r="G222" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="223" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7583,7 +7580,7 @@
         <v>485</v>
       </c>
       <c r="G223" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="224" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7603,10 +7600,10 @@
         <v>289</v>
       </c>
       <c r="F224" s="6" t="s">
-        <v>523</v>
+        <v>648</v>
       </c>
       <c r="G224" s="6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="225" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7626,10 +7623,10 @@
         <v>22</v>
       </c>
       <c r="F225" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G225" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="226" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7649,10 +7646,10 @@
         <v>12</v>
       </c>
       <c r="F226" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G226" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="227" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7672,10 +7669,10 @@
         <v>31</v>
       </c>
       <c r="F227" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G227" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="228" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7695,10 +7692,10 @@
         <v>11</v>
       </c>
       <c r="F228" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G228" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="229" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7718,10 +7715,10 @@
         <v>17</v>
       </c>
       <c r="F229" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G229" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="230" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7741,10 +7738,10 @@
         <v>289</v>
       </c>
       <c r="F230" s="6" t="s">
-        <v>523</v>
+        <v>648</v>
       </c>
       <c r="G230" s="6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="231" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7764,10 +7761,10 @@
         <v>292</v>
       </c>
       <c r="F231" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G231" s="6" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="232" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7790,7 +7787,7 @@
         <v>487</v>
       </c>
       <c r="G232" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="233" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7810,10 +7807,10 @@
         <v>23</v>
       </c>
       <c r="F233" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G233" s="6" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="234" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7833,10 +7830,10 @@
         <v>293</v>
       </c>
       <c r="F234" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G234" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="235" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7856,10 +7853,10 @@
         <v>26</v>
       </c>
       <c r="F235" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G235" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="236" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7879,10 +7876,10 @@
         <v>29</v>
       </c>
       <c r="F236" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G236" s="6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="237" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7902,10 +7899,10 @@
         <v>12</v>
       </c>
       <c r="F237" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G237" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="238" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7925,10 +7922,10 @@
         <v>291</v>
       </c>
       <c r="F238" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G238" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="239" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7948,10 +7945,10 @@
         <v>18</v>
       </c>
       <c r="F239" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G239" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="240" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7971,10 +7968,10 @@
         <v>14</v>
       </c>
       <c r="F240" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G240" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="241" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7994,10 +7991,10 @@
         <v>11</v>
       </c>
       <c r="F241" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G241" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="242" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8020,7 +8017,7 @@
         <v>522</v>
       </c>
       <c r="G242" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="243" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8040,10 +8037,10 @@
         <v>22</v>
       </c>
       <c r="F243" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G243" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="244" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8063,10 +8060,10 @@
         <v>290</v>
       </c>
       <c r="F244" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G244" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="245" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8086,10 +8083,10 @@
         <v>293</v>
       </c>
       <c r="F245" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G245" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="246" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8109,10 +8106,10 @@
         <v>23</v>
       </c>
       <c r="F246" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G246" s="6" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="247" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8132,10 +8129,10 @@
         <v>31</v>
       </c>
       <c r="F247" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G247" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="248" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8155,10 +8152,10 @@
         <v>17</v>
       </c>
       <c r="F248" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G248" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="249" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8178,10 +8175,10 @@
         <v>289</v>
       </c>
       <c r="F249" s="6" t="s">
-        <v>523</v>
+        <v>648</v>
       </c>
       <c r="G249" s="6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="250" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8201,10 +8198,10 @@
         <v>26</v>
       </c>
       <c r="F250" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G250" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="251" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8227,7 +8224,7 @@
         <v>485</v>
       </c>
       <c r="G251" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="252" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8247,10 +8244,10 @@
         <v>292</v>
       </c>
       <c r="F252" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G252" s="6" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="253" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8273,7 +8270,7 @@
         <v>487</v>
       </c>
       <c r="G253" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="254" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8293,10 +8290,10 @@
         <v>291</v>
       </c>
       <c r="F254" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G254" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="255" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8319,7 +8316,7 @@
         <v>522</v>
       </c>
       <c r="G255" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="256" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8339,10 +8336,10 @@
         <v>18</v>
       </c>
       <c r="F256" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G256" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="257" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8362,10 +8359,10 @@
         <v>29</v>
       </c>
       <c r="F257" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G257" s="6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="258" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8385,10 +8382,10 @@
         <v>12</v>
       </c>
       <c r="F258" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G258" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="259" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8408,10 +8405,10 @@
         <v>290</v>
       </c>
       <c r="F259" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G259" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="260" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8431,10 +8428,10 @@
         <v>11</v>
       </c>
       <c r="F260" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G260" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="261" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8454,10 +8451,10 @@
         <v>292</v>
       </c>
       <c r="F261" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G261" s="6" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="262" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8477,10 +8474,10 @@
         <v>22</v>
       </c>
       <c r="F262" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G262" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="263" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8500,10 +8497,10 @@
         <v>289</v>
       </c>
       <c r="F263" s="6" t="s">
-        <v>523</v>
+        <v>648</v>
       </c>
       <c r="G263" s="6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="264" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8523,10 +8520,10 @@
         <v>293</v>
       </c>
       <c r="F264" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G264" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="265" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8549,7 +8546,7 @@
         <v>487</v>
       </c>
       <c r="G265" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="266" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8569,10 +8566,10 @@
         <v>26</v>
       </c>
       <c r="F266" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G266" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="267" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8592,10 +8589,10 @@
         <v>14</v>
       </c>
       <c r="F267" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G267" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="268" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8615,10 +8612,10 @@
         <v>23</v>
       </c>
       <c r="F268" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G268" s="6" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="269" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8641,7 +8638,7 @@
         <v>485</v>
       </c>
       <c r="G269" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="270" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8661,10 +8658,10 @@
         <v>31</v>
       </c>
       <c r="F270" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G270" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="271" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8684,10 +8681,10 @@
         <v>17</v>
       </c>
       <c r="F271" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G271" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="272" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8707,10 +8704,10 @@
         <v>292</v>
       </c>
       <c r="F272" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G272" s="6" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="273" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8730,10 +8727,10 @@
         <v>22</v>
       </c>
       <c r="F273" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G273" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="274" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8753,10 +8750,10 @@
         <v>29</v>
       </c>
       <c r="F274" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G274" s="6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="275" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8776,10 +8773,10 @@
         <v>23</v>
       </c>
       <c r="F275" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G275" s="6" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="276" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8799,10 +8796,10 @@
         <v>290</v>
       </c>
       <c r="F276" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G276" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="277" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8822,10 +8819,10 @@
         <v>18</v>
       </c>
       <c r="F277" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G277" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="278" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8845,10 +8842,10 @@
         <v>11</v>
       </c>
       <c r="F278" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G278" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="279" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8868,10 +8865,10 @@
         <v>12</v>
       </c>
       <c r="F279" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G279" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="280" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8891,10 +8888,10 @@
         <v>291</v>
       </c>
       <c r="F280" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G280" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="281" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8914,10 +8911,10 @@
         <v>26</v>
       </c>
       <c r="F281" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G281" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="282" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8940,7 +8937,7 @@
         <v>487</v>
       </c>
       <c r="G282" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="283" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8963,7 +8960,7 @@
         <v>522</v>
       </c>
       <c r="G283" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="284" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8983,10 +8980,10 @@
         <v>289</v>
       </c>
       <c r="F284" s="6" t="s">
-        <v>523</v>
+        <v>648</v>
       </c>
       <c r="G284" s="6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="285" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9006,10 +9003,10 @@
         <v>31</v>
       </c>
       <c r="F285" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G285" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="286" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9029,10 +9026,10 @@
         <v>14</v>
       </c>
       <c r="F286" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G286" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="287" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9052,10 +9049,10 @@
         <v>17</v>
       </c>
       <c r="F287" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G287" s="6" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
     </row>
     <row r="288" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9075,10 +9072,10 @@
         <v>293</v>
       </c>
       <c r="F288" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G288" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="289" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9101,7 +9098,7 @@
         <v>485</v>
       </c>
       <c r="G289" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>

--- a/02_Datasets/internal-data.xlsx
+++ b/02_Datasets/internal-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/452190af13fbfd69/Documents/3_IES/8-Semestr/Data Analysis in Python/Python_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="680" documentId="8_{534CA496-1AC6-5749-A256-08ECE197E3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2185FE7-3687-DF41-8372-5B5854204DB9}"/>
+  <xr:revisionPtr revIDLastSave="693" documentId="8_{534CA496-1AC6-5749-A256-08ECE197E3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{328422B1-3523-344E-AE04-EBAC0CC4E41B}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{FE8946BB-4C5C-9C45-AE5D-68187B7683CC}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$289</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="0">Sheet1!$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$290</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">Sheet1!$H$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="650">
   <si>
     <t>Munich</t>
   </si>
@@ -1500,9 +1500,6 @@
     <t>A-p35722</t>
   </si>
   <si>
-    <t>accom. Code</t>
-  </si>
-  <si>
     <t>A-p34515</t>
   </si>
   <si>
@@ -1986,7 +1983,13 @@
     <t>MUC</t>
   </si>
   <si>
-    <t>-p35464</t>
+    <t>A-p35464</t>
+  </si>
+  <si>
+    <t>accom.Code</t>
+  </si>
+  <si>
+    <t>bundes000</t>
   </si>
 </sst>
 </file>
@@ -2085,7 +2088,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2423,10 +2433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A4DE301-258D-E545-BA5A-DCF6DF88238C}">
-  <dimension ref="A1:H289"/>
+  <dimension ref="A1:H290"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2435,7 +2445,7 @@
     <col min="2" max="2" width="10.83203125" style="2"/>
     <col min="3" max="3" width="36.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="73" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -2457,3517 +2467,3517 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>486</v>
+        <v>648</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="B2" s="5">
-        <v>45549</v>
+        <v>536</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45537</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B3" s="5">
         <v>45549</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="H3" s="7"/>
+        <v>537</v>
+      </c>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B4" s="5">
         <v>45549</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>490</v>
+        <v>34</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>488</v>
+        <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>489</v>
+        <v>27</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>522</v>
+        <v>485</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B5" s="5">
         <v>45549</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>32</v>
+        <v>489</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>24</v>
+        <v>487</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>289</v>
+        <v>488</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>648</v>
+        <v>521</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B6" s="5">
         <v>45549</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>523</v>
+        <v>647</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>647</v>
+        <v>543</v>
       </c>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B7" s="5">
         <v>45549</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>541</v>
+        <v>646</v>
       </c>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B8" s="5">
         <v>45549</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>25</v>
+        <v>36</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>524</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B9" s="5">
         <v>45549</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>13</v>
+        <v>37</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>543</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B10" s="5">
         <v>45549</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>287</v>
+        <v>38</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>290</v>
+        <v>14</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="H10" s="7"/>
+        <v>542</v>
+      </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B11" s="5">
-        <v>45556</v>
+        <v>45549</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>21</v>
+        <v>39</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>287</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>22</v>
+        <v>290</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>544</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B12" s="5">
         <v>45556</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="H12" s="7"/>
+        <v>543</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B13" s="5">
         <v>45556</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>4</v>
+        <v>41</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>291</v>
+        <v>18</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>542</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B14" s="5">
         <v>45556</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>647</v>
-      </c>
-      <c r="H14" s="7"/>
+        <v>541</v>
+      </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B15" s="5">
         <v>45556</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>292</v>
+        <v>31</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>546</v>
+        <v>646</v>
       </c>
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B16" s="5">
         <v>45556</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>17</v>
+        <v>292</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>647</v>
+        <v>545</v>
       </c>
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B17" s="5">
         <v>45556</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>547</v>
-      </c>
+        <v>646</v>
+      </c>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B18" s="5">
         <v>45556</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>10</v>
+        <v>490</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="H18" s="7"/>
+        <v>546</v>
+      </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B19" s="5">
         <v>45556</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>293</v>
+        <v>11</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>544</v>
-      </c>
+        <v>538</v>
+      </c>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B20" s="5">
-        <v>45563</v>
+        <v>45556</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>288</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>12</v>
+        <v>293</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>535</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>647</v>
-      </c>
-      <c r="H20" s="7"/>
+        <v>543</v>
+      </c>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B21" s="5">
         <v>45563</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>487</v>
+        <v>534</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>538</v>
-      </c>
+        <v>646</v>
+      </c>
+      <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B22" s="5">
         <v>45563</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B23" s="5">
         <v>45563</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>492</v>
+        <v>50</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>488</v>
+        <v>2</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>489</v>
+        <v>27</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>522</v>
+        <v>485</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B24" s="5">
         <v>45563</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>51</v>
+        <v>491</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>24</v>
+        <v>487</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>289</v>
+        <v>488</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>648</v>
+        <v>521</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B25" s="5">
         <v>45563</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>29</v>
+        <v>289</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>525</v>
+        <v>647</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B26" s="5">
         <v>45563</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>25</v>
+        <v>52</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>524</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B27" s="5">
         <v>45563</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>13</v>
+        <v>53</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B28" s="5">
         <v>45563</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>287</v>
+        <v>54</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>290</v>
+        <v>14</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B29" s="5">
-        <v>45570</v>
+        <v>45563</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>21</v>
+        <v>55</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>287</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>22</v>
+        <v>290</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B30" s="5">
         <v>45570</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>3</v>
+        <v>56</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B31" s="5">
         <v>45570</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>4</v>
+        <v>492</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>291</v>
+        <v>18</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B32" s="5">
         <v>45570</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>647</v>
+        <v>541</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B33" s="5">
         <v>45570</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>292</v>
+        <v>31</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>546</v>
+        <v>646</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B34" s="5">
         <v>45570</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>17</v>
+        <v>292</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>647</v>
+        <v>545</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B35" s="5">
         <v>45570</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>547</v>
+        <v>646</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B36" s="5">
         <v>45570</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>10</v>
+        <v>61</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>1</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B37" s="5">
         <v>45570</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>288</v>
+        <v>62</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>293</v>
+        <v>11</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B38" s="5">
-        <v>45584</v>
+        <v>45570</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>21</v>
+        <v>63</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>288</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>22</v>
+        <v>293</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B39" s="5">
         <v>45584</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>647</v>
+        <v>543</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B40" s="5">
         <v>45584</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>2</v>
+        <v>65</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>485</v>
+        <v>534</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>539</v>
+        <v>646</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B41" s="5">
         <v>45584</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>494</v>
+        <v>66</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>488</v>
+        <v>2</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>489</v>
+        <v>27</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>522</v>
+        <v>485</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B42" s="5">
         <v>45584</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>67</v>
+        <v>493</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>24</v>
+        <v>487</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>289</v>
+        <v>488</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>648</v>
+        <v>521</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B43" s="5">
         <v>45584</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>29</v>
+        <v>289</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>525</v>
+        <v>647</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B44" s="5">
         <v>45584</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>25</v>
+        <v>68</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>524</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B45" s="5">
         <v>45584</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>13</v>
+        <v>69</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B46" s="5">
         <v>45584</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>287</v>
+        <v>70</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>290</v>
+        <v>14</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B47" s="5">
-        <v>45591</v>
+        <v>45584</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>3</v>
+        <v>287</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>18</v>
+        <v>290</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B48" s="5">
         <v>45591</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
+        <v>72</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>487</v>
+        <v>528</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B49" s="5">
         <v>45591</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>495</v>
+        <v>73</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>531</v>
+        <v>486</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>647</v>
+        <v>537</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B50" s="5">
         <v>45591</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>74</v>
+        <v>494</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>292</v>
+        <v>31</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>546</v>
+        <v>646</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B51" s="5">
         <v>45591</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>17</v>
+        <v>292</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>647</v>
+        <v>545</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B52" s="5">
         <v>45591</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>25</v>
+        <v>75</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>542</v>
+        <v>646</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B53" s="5">
         <v>45591</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B54" s="5">
         <v>45591</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>10</v>
+        <v>77</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>1</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B55" s="5">
         <v>45591</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>288</v>
+        <v>78</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>293</v>
+        <v>11</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B56" s="5">
-        <v>45598</v>
+        <v>45591</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>21</v>
+        <v>79</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>288</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>22</v>
+        <v>293</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B57" s="5">
         <v>45598</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>647</v>
+        <v>543</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B58" s="5">
         <v>45598</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>2</v>
+        <v>81</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>485</v>
+        <v>534</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>539</v>
+        <v>646</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B59" s="5">
         <v>45598</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>4</v>
+        <v>82</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>291</v>
+        <v>27</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>530</v>
+        <v>485</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B60" s="5">
         <v>45598</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>488</v>
+        <v>83</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>489</v>
+        <v>291</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B61" s="5">
         <v>45598</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>84</v>
+        <v>495</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>24</v>
+        <v>487</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>289</v>
+        <v>488</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>648</v>
+        <v>521</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B62" s="5">
         <v>45598</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>28</v>
+        <v>84</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>29</v>
+        <v>289</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>525</v>
+        <v>647</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B63" s="5">
         <v>45598</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>13</v>
+        <v>85</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B64" s="5">
         <v>45598</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>287</v>
+        <v>86</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>290</v>
+        <v>14</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B65" s="5">
-        <v>45605</v>
+        <v>45598</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>3</v>
+        <v>287</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>18</v>
+        <v>290</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B66" s="5">
         <v>45605</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
+        <v>88</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>487</v>
+        <v>528</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B67" s="5">
         <v>45605</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>531</v>
+        <v>486</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>647</v>
+        <v>537</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B68" s="5">
         <v>45605</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>292</v>
+        <v>31</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>546</v>
+        <v>646</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B69" s="5">
         <v>45605</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>497</v>
+        <v>91</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>17</v>
+        <v>292</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>647</v>
+        <v>545</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B70" s="5">
         <v>45605</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>25</v>
+        <v>496</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>542</v>
+        <v>646</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B71" s="5">
         <v>45605</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="72" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B72" s="5">
         <v>45605</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>10</v>
+        <v>93</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>1</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
     </row>
     <row r="73" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B73" s="5">
         <v>45605</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>288</v>
+        <v>94</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>293</v>
+        <v>11</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="74" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B74" s="5">
-        <v>45619</v>
+        <v>45605</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>21</v>
+        <v>95</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>288</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>22</v>
+        <v>293</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="75" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B75" s="5">
         <v>45619</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>3</v>
+        <v>96</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="76" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B76" s="5">
         <v>45619</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>0</v>
+        <v>97</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>647</v>
+        <v>544</v>
       </c>
     </row>
     <row r="77" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B77" s="5">
         <v>45619</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>2</v>
+        <v>98</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>485</v>
+        <v>534</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>539</v>
+        <v>646</v>
       </c>
     </row>
     <row r="78" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B78" s="5">
         <v>45619</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>291</v>
+        <v>27</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>530</v>
+        <v>485</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B79" s="5">
         <v>45619</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>498</v>
+        <v>100</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>489</v>
+        <v>291</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="80" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B80" s="5">
         <v>45619</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>101</v>
+        <v>497</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>28</v>
+        <v>487</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>29</v>
+        <v>488</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="81" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B81" s="5">
         <v>45619</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="82" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B82" s="5">
         <v>45619</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>287</v>
+        <v>102</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>290</v>
+        <v>14</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="83" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B83" s="5">
-        <v>45626</v>
+        <v>45619</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
+        <v>103</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>287</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>19</v>
+        <v>290</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>487</v>
+        <v>526</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
     </row>
     <row r="84" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B84" s="5">
         <v>45626</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="85" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B85" s="5">
         <v>45626</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>531</v>
+        <v>485</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>647</v>
+        <v>538</v>
       </c>
     </row>
     <row r="86" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B86" s="5">
         <v>45626</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>292</v>
+        <v>31</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>546</v>
+        <v>646</v>
       </c>
     </row>
     <row r="87" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B87" s="5">
         <v>45626</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>648</v>
+        <v>531</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B88" s="5">
         <v>45626</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>523</v>
+        <v>647</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>647</v>
+        <v>543</v>
       </c>
     </row>
     <row r="89" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B89" s="5">
         <v>45626</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>25</v>
+        <v>109</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>542</v>
+        <v>646</v>
       </c>
     </row>
     <row r="90" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B90" s="5">
         <v>45626</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>110</v>
+        <v>498</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="91" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B91" s="5">
         <v>45626</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>288</v>
+        <v>1</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>293</v>
+        <v>23</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="92" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B92" s="5">
-        <v>45633</v>
+        <v>45626</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>21</v>
+        <v>111</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>288</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>22</v>
+        <v>293</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="93" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B93" s="5">
         <v>45633</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>3</v>
+        <v>112</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="94" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B94" s="5">
         <v>45633</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>0</v>
+        <v>113</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>647</v>
+        <v>544</v>
       </c>
     </row>
     <row r="95" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B95" s="5">
         <v>45633</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>4</v>
+        <v>114</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>542</v>
+        <v>646</v>
       </c>
     </row>
     <row r="96" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B96" s="5">
         <v>45633</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>500</v>
+        <v>115</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>489</v>
+        <v>291</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="97" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B97" s="5">
         <v>45633</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>116</v>
+        <v>499</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>28</v>
+        <v>487</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>29</v>
+        <v>488</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="98" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B98" s="5">
         <v>45633</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="99" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B99" s="5">
         <v>45633</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="100" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B100" s="5">
         <v>45633</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>287</v>
+        <v>118</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>290</v>
+        <v>11</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="101" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>296</v>
+        <v>645</v>
       </c>
       <c r="B101" s="5">
-        <v>45640</v>
+        <v>45633</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
+        <v>119</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>287</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>19</v>
+        <v>290</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>487</v>
+        <v>526</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
     </row>
     <row r="102" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B102" s="5">
         <v>45640</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>501</v>
+        <v>120</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="103" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B103" s="5">
         <v>45640</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>121</v>
+        <v>500</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>531</v>
+        <v>485</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>647</v>
+        <v>538</v>
       </c>
     </row>
     <row r="104" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B104" s="5">
         <v>45640</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>289</v>
+        <v>31</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>648</v>
+        <v>530</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>544</v>
+        <v>646</v>
       </c>
     </row>
     <row r="105" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B105" s="5">
         <v>45640</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>25</v>
+        <v>122</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>26</v>
+        <v>289</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>524</v>
+        <v>647</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="106" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B106" s="5">
         <v>45640</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>13</v>
+        <v>123</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="107" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B107" s="5">
         <v>45640</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>1</v>
+        <v>124</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="108" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B108" s="5">
         <v>45640</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>288</v>
+        <v>1</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>293</v>
+        <v>23</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="109" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B109" s="5">
         <v>45640</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>16</v>
+        <v>126</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>288</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>17</v>
+        <v>293</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>647</v>
+        <v>543</v>
       </c>
     </row>
     <row r="110" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B110" s="5">
-        <v>45647</v>
+        <v>45640</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>544</v>
+        <v>646</v>
       </c>
     </row>
     <row r="111" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B111" s="5">
         <v>45647</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>3</v>
+        <v>128</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="112" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B112" s="5">
         <v>45647</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>0</v>
+        <v>129</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>647</v>
+        <v>544</v>
       </c>
     </row>
     <row r="113" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B113" s="5">
         <v>45647</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>4</v>
+        <v>130</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>542</v>
+        <v>646</v>
       </c>
     </row>
     <row r="114" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B114" s="5">
         <v>45647</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>502</v>
+        <v>131</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>489</v>
+        <v>291</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="115" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B115" s="5">
         <v>45647</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>132</v>
+        <v>501</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>15</v>
+        <v>487</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>292</v>
+        <v>488</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="116" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B116" s="5">
         <v>45647</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>29</v>
+        <v>292</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="117" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B117" s="5">
         <v>45647</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="118" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B118" s="5">
         <v>45647</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>287</v>
+        <v>134</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>290</v>
+        <v>11</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="119" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B119" s="5">
-        <v>45668</v>
+        <v>45647</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>5</v>
+        <v>135</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>287</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>19</v>
+        <v>290</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>487</v>
+        <v>526</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
     </row>
     <row r="120" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B120" s="5">
         <v>45668</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="121" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B121" s="5">
         <v>45668</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>503</v>
+        <v>137</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>488</v>
+        <v>2</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>489</v>
+        <v>27</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>522</v>
+        <v>485</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="122" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B122" s="5">
         <v>45668</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>138</v>
+        <v>502</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>30</v>
+        <v>487</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>31</v>
+        <v>488</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>647</v>
+        <v>539</v>
       </c>
     </row>
     <row r="123" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B123" s="5">
         <v>45668</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>289</v>
+        <v>31</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>648</v>
+        <v>530</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>544</v>
+        <v>646</v>
       </c>
     </row>
     <row r="124" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B124" s="5">
         <v>45668</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>523</v>
+        <v>647</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>647</v>
+        <v>543</v>
       </c>
     </row>
     <row r="125" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B125" s="5">
         <v>45668</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>25</v>
+        <v>140</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>542</v>
+        <v>646</v>
       </c>
     </row>
     <row r="126" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B126" s="5">
         <v>45668</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>13</v>
+        <v>141</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="127" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B127" s="5">
         <v>45668</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>288</v>
+        <v>142</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="128" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B128" s="5">
-        <v>45671</v>
+        <v>45668</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>21</v>
+        <v>143</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>288</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>22</v>
+        <v>293</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="129" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B129" s="5">
         <v>45671</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>3</v>
+        <v>144</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="130" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B130" s="5">
         <v>45671</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>0</v>
+        <v>145</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>647</v>
+        <v>544</v>
       </c>
     </row>
     <row r="131" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B131" s="5">
         <v>45671</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>4</v>
+        <v>503</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>542</v>
+        <v>646</v>
       </c>
     </row>
     <row r="132" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B132" s="5">
         <v>45671</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="133" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B133" s="5">
         <v>45671</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>29</v>
+        <v>292</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="134" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B134" s="5">
         <v>45671</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>1</v>
+        <v>148</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
     </row>
     <row r="135" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B135" s="5">
         <v>45671</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>10</v>
+        <v>149</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>1</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
     </row>
     <row r="136" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B136" s="5">
         <v>45671</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>287</v>
+        <v>150</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>290</v>
+        <v>11</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="137" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B137" s="5">
-        <v>45675</v>
+        <v>45671</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>21</v>
+        <v>151</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>287</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>22</v>
+        <v>290</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="138" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B138" s="5">
         <v>45675</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="139" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B139" s="5">
         <v>45675</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>291</v>
+        <v>11</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="140" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B140" s="5">
         <v>45675</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="D140" s="6" t="s">
-        <v>287</v>
+        <v>20</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="141" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B141" s="5">
         <v>45675</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>154</v>
+        <v>504</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>3</v>
+        <v>287</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>18</v>
+        <v>290</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="142" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B142" s="5">
         <v>45675</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>292</v>
+        <v>18</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="143" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B143" s="5">
         <v>45675</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>647</v>
+        <v>545</v>
       </c>
     </row>
     <row r="144" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B144" s="5">
         <v>45675</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D144" s="6" t="s">
-        <v>1</v>
+        <v>156</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>547</v>
+        <v>646</v>
       </c>
     </row>
     <row r="145" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B145" s="5">
         <v>45675</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>30</v>
+        <v>157</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>1</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>647</v>
+        <v>546</v>
       </c>
     </row>
     <row r="146" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B146" s="5">
-        <v>45682</v>
+        <v>45675</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>487</v>
+        <v>530</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>538</v>
+        <v>646</v>
       </c>
     </row>
     <row r="147" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B147" s="5">
         <v>45682</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D147" s="6" t="s">
-        <v>25</v>
+        <v>159</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>524</v>
+        <v>486</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="148" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B148" s="5">
         <v>45682</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>24</v>
+        <v>160</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>289</v>
+        <v>26</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>648</v>
+        <v>523</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="149" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B149" s="5">
         <v>45682</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>506</v>
+        <v>161</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>488</v>
+        <v>24</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>489</v>
+        <v>289</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>522</v>
+        <v>647</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="150" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B150" s="5">
         <v>45682</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>162</v>
+        <v>505</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>16</v>
+        <v>487</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>17</v>
+        <v>488</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>647</v>
+        <v>539</v>
       </c>
     </row>
     <row r="151" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B151" s="5">
         <v>45682</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>485</v>
+        <v>522</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>539</v>
+        <v>646</v>
       </c>
     </row>
     <row r="152" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B152" s="5">
         <v>45682</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D152" s="6" t="s">
-        <v>288</v>
+        <v>163</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>293</v>
+        <v>27</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="153" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B153" s="5">
         <v>45682</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>13</v>
+        <v>164</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>288</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>14</v>
+        <v>293</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="G153" s="6" t="s">
         <v>543</v>
@@ -5975,206 +5985,206 @@
     </row>
     <row r="154" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B154" s="5">
         <v>45682</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F154" s="6" t="s">
         <v>525</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="155" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B155" s="5">
-        <v>45689</v>
+        <v>45682</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D155" s="6" t="s">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
     </row>
     <row r="156" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B156" s="5">
         <v>45689</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>30</v>
+        <v>167</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>1</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>647</v>
+        <v>546</v>
       </c>
     </row>
     <row r="157" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B157" s="5">
         <v>45689</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>507</v>
+        <v>168</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>544</v>
+        <v>646</v>
       </c>
     </row>
     <row r="158" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B158" s="5">
         <v>45689</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>169</v>
+        <v>506</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="159" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B159" s="5">
         <v>45689</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D159" s="6" t="s">
-        <v>288</v>
+        <v>169</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>293</v>
+        <v>11</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="160" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B160" s="5">
         <v>45689</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>4</v>
+        <v>170</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>288</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="161" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B161" s="5">
         <v>45689</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="162" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B162" s="5">
         <v>45689</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D162" s="6" t="s">
-        <v>3</v>
+        <v>172</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>18</v>
+        <v>292</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="G162" s="6" t="s">
         <v>545</v>
@@ -6182,574 +6192,574 @@
     </row>
     <row r="163" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B163" s="5">
         <v>45689</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D163" s="8" t="s">
-        <v>0</v>
+        <v>173</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>647</v>
+        <v>544</v>
       </c>
     </row>
     <row r="164" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B164" s="5">
-        <v>45696</v>
+        <v>45689</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>28</v>
+        <v>174</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>541</v>
+        <v>646</v>
       </c>
     </row>
     <row r="165" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B165" s="5">
         <v>45696</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>485</v>
+        <v>524</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="166" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B166" s="5">
         <v>45696</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>526</v>
+        <v>485</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="167" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B167" s="5">
         <v>45696</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>289</v>
+        <v>14</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>648</v>
+        <v>525</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="168" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B168" s="5">
         <v>45696</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D168" s="8" t="s">
-        <v>0</v>
+        <v>178</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>12</v>
+        <v>289</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>535</v>
+        <v>647</v>
       </c>
       <c r="G168" s="6" t="s">
-        <v>647</v>
+        <v>543</v>
       </c>
     </row>
     <row r="169" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B169" s="5">
         <v>45696</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D169" s="6" t="s">
-        <v>25</v>
+        <v>179</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="G169" s="6" t="s">
-        <v>542</v>
+        <v>646</v>
       </c>
     </row>
     <row r="170" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B170" s="5">
         <v>45696</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>488</v>
+        <v>180</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>489</v>
+        <v>26</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="171" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B171" s="5">
         <v>45696</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D171" s="6" t="s">
-        <v>287</v>
+        <v>507</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>487</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>290</v>
+        <v>488</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="172" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B172" s="5">
         <v>45696</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>5</v>
+        <v>287</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>19</v>
+        <v>290</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>487</v>
+        <v>526</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
     </row>
     <row r="173" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B173" s="5">
-        <v>45703</v>
+        <v>45696</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>21</v>
+        <v>182</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>528</v>
+        <v>486</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
     </row>
     <row r="174" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B174" s="5">
         <v>45703</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>647</v>
+        <v>543</v>
       </c>
     </row>
     <row r="175" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B175" s="5">
         <v>45703</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>539</v>
+        <v>646</v>
       </c>
     </row>
     <row r="176" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B176" s="5">
         <v>45703</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>509</v>
+        <v>185</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G176" s="6" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
     </row>
     <row r="177" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B177" s="5">
         <v>45703</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D177" s="6" t="s">
-        <v>288</v>
+        <v>508</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="G177" s="6" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="178" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B178" s="5">
         <v>45703</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>3</v>
+        <v>288</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>18</v>
+        <v>293</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="179" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B179" s="5">
         <v>45703</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>30</v>
+        <v>187</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>647</v>
+        <v>544</v>
       </c>
     </row>
     <row r="180" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B180" s="5">
         <v>45703</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D180" s="6" t="s">
-        <v>1</v>
+        <v>188</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>547</v>
+        <v>646</v>
       </c>
     </row>
     <row r="181" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B181" s="5">
         <v>45703</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>4</v>
+        <v>189</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>1</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>291</v>
+        <v>23</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="182" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B182" s="5">
-        <v>45710</v>
+        <v>45703</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D182" s="6" t="s">
-        <v>287</v>
+        <v>190</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F182" s="6" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="183" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B183" s="5">
         <v>45710</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="D183" s="8" t="s">
-        <v>488</v>
+        <v>191</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>287</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>489</v>
+        <v>290</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="184" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B184" s="5">
         <v>45710</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>192</v>
+        <v>509</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>0</v>
+        <v>487</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>12</v>
+        <v>488</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>647</v>
+        <v>539</v>
       </c>
     </row>
     <row r="185" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B185" s="5">
         <v>45710</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D185" s="6" t="s">
-        <v>5</v>
+        <v>192</v>
+      </c>
+      <c r="D185" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>487</v>
+        <v>534</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>538</v>
+        <v>646</v>
       </c>
     </row>
     <row r="186" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B186" s="5">
         <v>45710</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>24</v>
+        <v>193</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>289</v>
+        <v>19</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>648</v>
+        <v>486</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
     </row>
     <row r="187" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B187" s="5">
         <v>45710</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>14</v>
+        <v>289</v>
       </c>
       <c r="F187" s="6" t="s">
-        <v>526</v>
+        <v>647</v>
       </c>
       <c r="G187" s="6" t="s">
         <v>543</v>
@@ -6757,137 +6767,137 @@
     </row>
     <row r="188" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B188" s="5">
         <v>45710</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>485</v>
+        <v>525</v>
       </c>
       <c r="G188" s="6" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="189" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B189" s="5">
         <v>45710</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D189" s="6" t="s">
-        <v>28</v>
+        <v>196</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>525</v>
+        <v>485</v>
       </c>
       <c r="G189" s="6" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="190" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B190" s="5">
         <v>45710</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F190" s="6" t="s">
         <v>524</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="191" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B191" s="5">
-        <v>45717</v>
+        <v>45710</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>4</v>
+        <v>198</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>291</v>
+        <v>26</v>
       </c>
       <c r="F191" s="6" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="G191" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="192" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B192" s="5">
         <v>45717</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D192" s="6" t="s">
-        <v>3</v>
+        <v>199</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>18</v>
+        <v>291</v>
       </c>
       <c r="F192" s="6" t="s">
         <v>529</v>
       </c>
       <c r="G192" s="6" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="193" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B193" s="5">
         <v>45717</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>288</v>
+        <v>3</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>293</v>
+        <v>18</v>
       </c>
       <c r="F193" s="6" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="G193" s="6" t="s">
         <v>544</v>
@@ -6895,298 +6905,298 @@
     </row>
     <row r="194" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B194" s="5">
         <v>45717</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>10</v>
+        <v>201</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>288</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>11</v>
+        <v>293</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G194" s="6" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="195" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B195" s="5">
         <v>45717</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>202</v>
+        <v>510</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F195" s="6" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="G195" s="6" t="s">
-        <v>647</v>
+        <v>538</v>
       </c>
     </row>
     <row r="196" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B196" s="5">
         <v>45717</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>292</v>
+        <v>17</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="G196" s="6" t="s">
-        <v>546</v>
+        <v>646</v>
       </c>
     </row>
     <row r="197" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B197" s="5">
         <v>45717</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>19</v>
+        <v>292</v>
       </c>
       <c r="F197" s="6" t="s">
-        <v>487</v>
+        <v>531</v>
       </c>
       <c r="G197" s="6" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
     </row>
     <row r="198" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B198" s="5">
         <v>45717</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>531</v>
+        <v>486</v>
       </c>
       <c r="G198" s="6" t="s">
-        <v>647</v>
+        <v>537</v>
       </c>
     </row>
     <row r="199" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B199" s="5">
         <v>45717</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D199" s="6" t="s">
-        <v>1</v>
+        <v>205</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="G199" s="6" t="s">
-        <v>547</v>
+        <v>646</v>
       </c>
     </row>
     <row r="200" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B200" s="5">
-        <v>45724</v>
+        <v>45717</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>287</v>
+        <v>1</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>290</v>
+        <v>23</v>
       </c>
       <c r="F200" s="6" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="G200" s="6" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="201" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B201" s="5">
         <v>45724</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>24</v>
+        <v>287</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F201" s="6" t="s">
-        <v>648</v>
+        <v>526</v>
       </c>
       <c r="G201" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="202" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B202" s="5">
         <v>45724</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D202" s="8" t="s">
-        <v>488</v>
+        <v>208</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>489</v>
+        <v>294</v>
       </c>
       <c r="F202" s="6" t="s">
-        <v>522</v>
+        <v>647</v>
       </c>
       <c r="G202" s="6" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="203" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B203" s="5">
         <v>45724</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D203" s="3" t="s">
-        <v>21</v>
+        <v>511</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>487</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>22</v>
+        <v>488</v>
       </c>
       <c r="F203" s="6" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="G203" s="6" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="204" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B204" s="5">
         <v>45724</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F204" s="6" t="s">
-        <v>485</v>
+        <v>527</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="205" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B205" s="5">
         <v>45724</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F205" s="6" t="s">
-        <v>526</v>
+        <v>485</v>
       </c>
       <c r="G205" s="6" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="206" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B206" s="5">
         <v>45724</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>291</v>
+        <v>14</v>
       </c>
       <c r="F206" s="6" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G206" s="6" t="s">
         <v>542</v>
@@ -7194,390 +7204,390 @@
     </row>
     <row r="207" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B207" s="5">
         <v>45724</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D207" s="8" t="s">
-        <v>0</v>
+        <v>212</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>12</v>
+        <v>291</v>
       </c>
       <c r="F207" s="6" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="G207" s="6" t="s">
-        <v>647</v>
+        <v>541</v>
       </c>
     </row>
     <row r="208" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B208" s="5">
         <v>45724</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D208" s="3" t="s">
-        <v>28</v>
+        <v>213</v>
+      </c>
+      <c r="D208" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F208" s="6" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="G208" s="6" t="s">
-        <v>541</v>
+        <v>646</v>
       </c>
     </row>
     <row r="209" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B209" s="5">
-        <v>45731</v>
+        <v>45724</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D209" s="6" t="s">
-        <v>3</v>
+        <v>214</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F209" s="6" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="G209" s="6" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="210" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B210" s="5">
         <v>45731</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F210" s="6" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="G210" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="211" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B211" s="5">
         <v>45731</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D211" s="3" t="s">
-        <v>5</v>
+        <v>216</v>
+      </c>
+      <c r="D211" s="6" t="s">
+        <v>1</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F211" s="6" t="s">
-        <v>487</v>
+        <v>532</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
     </row>
     <row r="212" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B212" s="5">
         <v>45731</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>534</v>
+        <v>486</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="213" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B213" s="5">
         <v>45731</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="D213" s="6" t="s">
-        <v>288</v>
+        <v>218</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>293</v>
+        <v>11</v>
       </c>
       <c r="F213" s="6" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="214" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B214" s="5">
         <v>45731</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>219</v>
+        <v>512</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>25</v>
+        <v>288</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>26</v>
+        <v>293</v>
       </c>
       <c r="F214" s="6" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="G214" s="6" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="215" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B215" s="5">
         <v>45731</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D215" s="3" t="s">
-        <v>16</v>
+        <v>219</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F215" s="6" t="s">
         <v>523</v>
       </c>
       <c r="G215" s="6" t="s">
-        <v>647</v>
+        <v>541</v>
       </c>
     </row>
     <row r="216" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B216" s="5">
         <v>45731</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>292</v>
+        <v>17</v>
       </c>
       <c r="F216" s="6" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="G216" s="6" t="s">
-        <v>546</v>
+        <v>646</v>
       </c>
     </row>
     <row r="217" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B217" s="5">
         <v>45731</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>31</v>
+        <v>292</v>
       </c>
       <c r="F217" s="6" t="s">
         <v>531</v>
       </c>
       <c r="G217" s="6" t="s">
-        <v>647</v>
+        <v>545</v>
       </c>
     </row>
     <row r="218" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B218" s="5">
-        <v>45745</v>
+        <v>45731</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>291</v>
+        <v>31</v>
       </c>
       <c r="F218" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G218" s="6" t="s">
-        <v>542</v>
+        <v>646</v>
       </c>
     </row>
     <row r="219" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B219" s="5">
         <v>45745</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>14</v>
+        <v>291</v>
       </c>
       <c r="F219" s="6" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="G219" s="6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="220" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B220" s="5">
         <v>45745</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D220" s="6" t="s">
-        <v>28</v>
+        <v>224</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F220" s="6" t="s">
         <v>525</v>
       </c>
       <c r="G220" s="6" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="221" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B221" s="5">
         <v>45745</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>287</v>
+        <v>28</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>290</v>
+        <v>29</v>
       </c>
       <c r="F221" s="6" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="G221" s="6" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="222" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B222" s="5">
         <v>45745</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="D222" s="8" t="s">
-        <v>488</v>
+        <v>226</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>287</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>489</v>
+        <v>290</v>
       </c>
       <c r="F222" s="6" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="G222" s="6" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="223" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B223" s="5">
         <v>45745</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D223" s="3" t="s">
-        <v>2</v>
+        <v>513</v>
+      </c>
+      <c r="D223" s="8" t="s">
+        <v>487</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>27</v>
+        <v>488</v>
       </c>
       <c r="F223" s="6" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
       <c r="G223" s="6" t="s">
         <v>539</v>
@@ -7585,298 +7595,298 @@
     </row>
     <row r="224" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B224" s="5">
         <v>45745</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>289</v>
+        <v>27</v>
       </c>
       <c r="F224" s="6" t="s">
-        <v>648</v>
+        <v>485</v>
       </c>
       <c r="G224" s="6" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="225" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B225" s="5">
         <v>45745</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>22</v>
+        <v>289</v>
       </c>
       <c r="F225" s="6" t="s">
-        <v>528</v>
+        <v>647</v>
       </c>
       <c r="G225" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="226" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B226" s="5">
         <v>45745</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D226" s="8" t="s">
-        <v>0</v>
+        <v>229</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F226" s="6" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="G226" s="6" t="s">
-        <v>647</v>
+        <v>543</v>
       </c>
     </row>
     <row r="227" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B227" s="5">
-        <v>45752</v>
+        <v>45745</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D227" s="3" t="s">
-        <v>30</v>
+        <v>230</v>
+      </c>
+      <c r="D227" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F227" s="6" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="G227" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="228" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B228" s="5">
         <v>45752</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F228" s="6" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G228" s="6" t="s">
-        <v>539</v>
+        <v>646</v>
       </c>
     </row>
     <row r="229" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B229" s="5">
         <v>45752</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F229" s="6" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="G229" s="6" t="s">
-        <v>647</v>
+        <v>538</v>
       </c>
     </row>
     <row r="230" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B230" s="5">
         <v>45752</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>289</v>
+        <v>17</v>
       </c>
       <c r="F230" s="6" t="s">
-        <v>648</v>
+        <v>522</v>
       </c>
       <c r="G230" s="6" t="s">
-        <v>544</v>
+        <v>646</v>
       </c>
     </row>
     <row r="231" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B231" s="5">
         <v>45752</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F231" s="6" t="s">
-        <v>532</v>
+        <v>647</v>
       </c>
       <c r="G231" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="232" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B232" s="5">
         <v>45752</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>515</v>
+        <v>235</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>19</v>
+        <v>292</v>
       </c>
       <c r="F232" s="6" t="s">
-        <v>487</v>
+        <v>531</v>
       </c>
       <c r="G232" s="6" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
     </row>
     <row r="233" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B233" s="5">
         <v>45752</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D233" s="6" t="s">
-        <v>1</v>
+        <v>514</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F233" s="6" t="s">
-        <v>533</v>
+        <v>486</v>
       </c>
       <c r="G233" s="6" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
     </row>
     <row r="234" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B234" s="5">
         <v>45752</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>288</v>
+        <v>1</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>293</v>
+        <v>23</v>
       </c>
       <c r="F234" s="6" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G234" s="6" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="235" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B235" s="5">
         <v>45752</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>25</v>
+        <v>288</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>26</v>
+        <v>293</v>
       </c>
       <c r="F235" s="6" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="G235" s="6" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="236" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B236" s="5">
-        <v>45759</v>
+        <v>45752</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D236" s="3" t="s">
-        <v>28</v>
+        <v>238</v>
+      </c>
+      <c r="D236" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F236" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G236" s="6" t="s">
         <v>541</v>
@@ -7884,1227 +7894,1255 @@
     </row>
     <row r="237" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B237" s="5">
         <v>45759</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D237" s="8" t="s">
-        <v>0</v>
+        <v>239</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F237" s="6" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="G237" s="6" t="s">
-        <v>647</v>
+        <v>540</v>
       </c>
     </row>
     <row r="238" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B238" s="5">
         <v>45759</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D238" s="3" t="s">
-        <v>4</v>
+        <v>240</v>
+      </c>
+      <c r="D238" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="F238" s="6" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="G238" s="6" t="s">
-        <v>542</v>
+        <v>646</v>
       </c>
     </row>
     <row r="239" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B239" s="5">
         <v>45759</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="D239" s="6" t="s">
-        <v>3</v>
+        <v>241</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>18</v>
+        <v>291</v>
       </c>
       <c r="F239" s="6" t="s">
         <v>529</v>
       </c>
       <c r="G239" s="6" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="240" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B240" s="5">
         <v>45759</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="D240" s="3" t="s">
-        <v>13</v>
+        <v>242</v>
+      </c>
+      <c r="D240" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F240" s="6" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G240" s="6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="241" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B241" s="5">
         <v>45759</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F241" s="6" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="G241" s="6" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="242" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B242" s="5">
         <v>45759</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="D242" s="8" t="s">
-        <v>488</v>
+        <v>244</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>489</v>
+        <v>11</v>
       </c>
       <c r="F242" s="6" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="G242" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="243" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B243" s="5">
         <v>45759</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="D243" s="3" t="s">
-        <v>21</v>
+        <v>515</v>
+      </c>
+      <c r="D243" s="8" t="s">
+        <v>487</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>22</v>
+        <v>488</v>
       </c>
       <c r="F243" s="6" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="G243" s="6" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="244" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B244" s="5">
         <v>45759</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="D244" s="6" t="s">
-        <v>287</v>
+        <v>245</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="F244" s="6" t="s">
         <v>527</v>
       </c>
       <c r="G244" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="245" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B245" s="5">
-        <v>45766</v>
+        <v>45759</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F245" s="6" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G245" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="246" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B246" s="5">
         <v>45766</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>1</v>
+        <v>288</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>23</v>
+        <v>293</v>
       </c>
       <c r="F246" s="6" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="G246" s="6" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="247" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B247" s="5">
         <v>45766</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="D247" s="3" t="s">
-        <v>30</v>
+        <v>248</v>
+      </c>
+      <c r="D247" s="6" t="s">
+        <v>1</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F247" s="6" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G247" s="6" t="s">
-        <v>647</v>
+        <v>546</v>
       </c>
     </row>
     <row r="248" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B248" s="5">
         <v>45766</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F248" s="6" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="G248" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="249" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B249" s="5">
         <v>45766</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>517</v>
+        <v>250</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>289</v>
+        <v>17</v>
       </c>
       <c r="F249" s="6" t="s">
-        <v>648</v>
+        <v>522</v>
       </c>
       <c r="G249" s="6" t="s">
-        <v>544</v>
+        <v>646</v>
       </c>
     </row>
     <row r="250" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B250" s="5">
         <v>45766</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D250" s="6" t="s">
-        <v>25</v>
+        <v>516</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>26</v>
+        <v>289</v>
       </c>
       <c r="F250" s="6" t="s">
-        <v>524</v>
+        <v>647</v>
       </c>
       <c r="G250" s="6" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="251" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B251" s="5">
         <v>45766</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="D251" s="3" t="s">
-        <v>2</v>
+        <v>251</v>
+      </c>
+      <c r="D251" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F251" s="6" t="s">
-        <v>485</v>
+        <v>523</v>
       </c>
       <c r="G251" s="6" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="252" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B252" s="5">
         <v>45766</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>292</v>
+        <v>27</v>
       </c>
       <c r="F252" s="6" t="s">
-        <v>532</v>
+        <v>485</v>
       </c>
       <c r="G252" s="6" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
     </row>
     <row r="253" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B253" s="5">
         <v>45766</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>19</v>
+        <v>292</v>
       </c>
       <c r="F253" s="6" t="s">
-        <v>487</v>
+        <v>531</v>
       </c>
       <c r="G253" s="6" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
     </row>
     <row r="254" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B254" s="5">
-        <v>45773</v>
+        <v>45766</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>291</v>
+        <v>19</v>
       </c>
       <c r="F254" s="6" t="s">
-        <v>530</v>
+        <v>486</v>
       </c>
       <c r="G254" s="6" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="255" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B255" s="5">
         <v>45773</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="D255" s="8" t="s">
-        <v>488</v>
+        <v>255</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>489</v>
+        <v>291</v>
       </c>
       <c r="F255" s="6" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="G255" s="6" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="256" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B256" s="5">
         <v>45773</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D256" s="6" t="s">
-        <v>3</v>
+        <v>517</v>
+      </c>
+      <c r="D256" s="8" t="s">
+        <v>487</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>18</v>
+        <v>488</v>
       </c>
       <c r="F256" s="6" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="G256" s="6" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="257" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B257" s="5">
         <v>45773</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="D257" s="3" t="s">
-        <v>28</v>
+        <v>256</v>
+      </c>
+      <c r="D257" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F257" s="6" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="G257" s="6" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="258" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B258" s="5">
         <v>45773</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="D258" s="8" t="s">
-        <v>0</v>
+        <v>257</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F258" s="6" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="G258" s="6" t="s">
-        <v>647</v>
+        <v>540</v>
       </c>
     </row>
     <row r="259" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B259" s="5">
         <v>45773</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="D259" s="6" t="s">
-        <v>287</v>
+        <v>258</v>
+      </c>
+      <c r="D259" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>290</v>
+        <v>12</v>
       </c>
       <c r="F259" s="6" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="G259" s="6" t="s">
-        <v>544</v>
+        <v>646</v>
       </c>
     </row>
     <row r="260" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B260" s="5">
         <v>45773</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="D260" s="3" t="s">
-        <v>10</v>
+        <v>259</v>
+      </c>
+      <c r="D260" s="6" t="s">
+        <v>287</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>11</v>
+        <v>290</v>
       </c>
       <c r="F260" s="6" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="G260" s="6" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="261" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B261" s="5">
         <v>45773</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="F261" s="6" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G261" s="6" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
     </row>
     <row r="262" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B262" s="5">
         <v>45773</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>22</v>
+        <v>292</v>
       </c>
       <c r="F262" s="6" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G262" s="6" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="263" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B263" s="5">
-        <v>45780</v>
+        <v>45773</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>289</v>
+        <v>22</v>
       </c>
       <c r="F263" s="6" t="s">
-        <v>648</v>
+        <v>527</v>
       </c>
       <c r="G263" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="264" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B264" s="5">
         <v>45780</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="D264" s="6" t="s">
-        <v>288</v>
+        <v>263</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F264" s="6" t="s">
-        <v>536</v>
+        <v>647</v>
       </c>
       <c r="G264" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="265" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B265" s="5">
         <v>45780</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="D265" s="3" t="s">
-        <v>5</v>
+        <v>264</v>
+      </c>
+      <c r="D265" s="6" t="s">
+        <v>288</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>19</v>
+        <v>293</v>
       </c>
       <c r="F265" s="6" t="s">
-        <v>487</v>
+        <v>535</v>
       </c>
       <c r="G265" s="6" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
     </row>
     <row r="266" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B266" s="5">
         <v>45780</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D266" s="6" t="s">
-        <v>25</v>
+        <v>265</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F266" s="6" t="s">
-        <v>524</v>
+        <v>486</v>
       </c>
       <c r="G266" s="6" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="267" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B267" s="5">
         <v>45780</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="D267" s="3" t="s">
-        <v>13</v>
+        <v>266</v>
+      </c>
+      <c r="D267" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F267" s="6" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G267" s="6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="268" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B268" s="5">
         <v>45780</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="D268" s="6" t="s">
-        <v>1</v>
+        <v>518</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F268" s="6" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="G268" s="6" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="269" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B269" s="5">
         <v>45780</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="D269" s="3" t="s">
-        <v>2</v>
+        <v>267</v>
+      </c>
+      <c r="D269" s="6" t="s">
+        <v>1</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F269" s="6" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
       <c r="G269" s="6" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
     </row>
     <row r="270" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B270" s="5">
         <v>45780</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F270" s="6" t="s">
-        <v>531</v>
+        <v>485</v>
       </c>
       <c r="G270" s="6" t="s">
-        <v>647</v>
+        <v>538</v>
       </c>
     </row>
     <row r="271" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B271" s="5">
         <v>45780</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F271" s="6" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="G271" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="272" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B272" s="5">
-        <v>45787</v>
+        <v>45780</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>292</v>
+        <v>17</v>
       </c>
       <c r="F272" s="6" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="G272" s="6" t="s">
-        <v>546</v>
+        <v>646</v>
       </c>
     </row>
     <row r="273" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B273" s="5">
         <v>45787</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>22</v>
+        <v>292</v>
       </c>
       <c r="F273" s="6" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G273" s="6" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="274" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B274" s="5">
         <v>45787</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>520</v>
+        <v>272</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F274" s="6" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="G274" s="6" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="275" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B275" s="5">
         <v>45787</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="D275" s="6" t="s">
-        <v>1</v>
+        <v>519</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F275" s="6" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="G275" s="6" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
     </row>
     <row r="276" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B276" s="5">
         <v>45787</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>287</v>
+        <v>1</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>290</v>
+        <v>23</v>
       </c>
       <c r="F276" s="6" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="G276" s="6" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="277" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B277" s="5">
         <v>45787</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D277" s="6" t="s">
-        <v>3</v>
+        <v>287</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>18</v>
+        <v>290</v>
       </c>
       <c r="F277" s="6" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G277" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="278" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B278" s="5">
         <v>45787</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="D278" s="3" t="s">
-        <v>10</v>
+        <v>275</v>
+      </c>
+      <c r="D278" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F278" s="6" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G278" s="6" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
     </row>
     <row r="279" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B279" s="5">
         <v>45787</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="D279" s="8" t="s">
-        <v>0</v>
+        <v>276</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F279" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G279" s="6" t="s">
-        <v>647</v>
+        <v>538</v>
       </c>
     </row>
     <row r="280" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B280" s="5">
         <v>45787</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D280" s="3" t="s">
-        <v>4</v>
+        <v>277</v>
+      </c>
+      <c r="D280" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="F280" s="6" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="G280" s="6" t="s">
-        <v>542</v>
+        <v>646</v>
       </c>
     </row>
     <row r="281" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B281" s="5">
-        <v>45794</v>
+        <v>45787</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="D281" s="6" t="s">
-        <v>25</v>
+        <v>278</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>26</v>
+        <v>291</v>
       </c>
       <c r="F281" s="6" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="G281" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="282" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B282" s="5">
         <v>45794</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="D282" s="3" t="s">
-        <v>5</v>
+        <v>279</v>
+      </c>
+      <c r="D282" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F282" s="6" t="s">
-        <v>487</v>
+        <v>523</v>
       </c>
       <c r="G282" s="6" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="283" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B283" s="5">
         <v>45794</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="D283" s="8" t="s">
-        <v>488</v>
+        <v>280</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>489</v>
+        <v>19</v>
       </c>
       <c r="F283" s="6" t="s">
-        <v>522</v>
+        <v>486</v>
       </c>
       <c r="G283" s="6" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="284" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B284" s="5">
         <v>45794</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="D284" s="3" t="s">
-        <v>24</v>
+        <v>520</v>
+      </c>
+      <c r="D284" s="8" t="s">
+        <v>487</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>289</v>
+        <v>488</v>
       </c>
       <c r="F284" s="6" t="s">
-        <v>648</v>
+        <v>521</v>
       </c>
       <c r="G284" s="6" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="285" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B285" s="5">
         <v>45794</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>31</v>
+        <v>289</v>
       </c>
       <c r="F285" s="6" t="s">
-        <v>531</v>
+        <v>647</v>
       </c>
       <c r="G285" s="6" t="s">
-        <v>647</v>
+        <v>543</v>
       </c>
     </row>
     <row r="286" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B286" s="5">
         <v>45794</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F286" s="6" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="G286" s="6" t="s">
-        <v>543</v>
+        <v>646</v>
       </c>
     </row>
     <row r="287" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B287" s="5">
         <v>45794</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F287" s="6" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="G287" s="6" t="s">
-        <v>647</v>
+        <v>542</v>
       </c>
     </row>
     <row r="288" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B288" s="5">
         <v>45794</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D288" s="6" t="s">
-        <v>288</v>
+        <v>284</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>293</v>
+        <v>17</v>
       </c>
       <c r="F288" s="6" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="G288" s="6" t="s">
-        <v>544</v>
+        <v>646</v>
       </c>
     </row>
     <row r="289" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B289" s="5">
         <v>45794</v>
       </c>
       <c r="C289" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D289" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="F289" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="G289" s="6" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="B290" s="5">
+        <v>45794</v>
+      </c>
+      <c r="C290" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="D289" s="3" t="s">
+      <c r="D290" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E289" s="3" t="s">
+      <c r="E290" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F289" s="6" t="s">
+      <c r="F290" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="G289" s="6" t="s">
-        <v>539</v>
+      <c r="G290" s="6" t="s">
+        <v>538</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B2:C289">
-    <cfRule type="expression" dxfId="0" priority="5">
+  <conditionalFormatting sqref="B3:C290">
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>ISEVEN(#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>ISEVEN(#REF!)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/02_Datasets/internal-data.xlsx
+++ b/02_Datasets/internal-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/452190af13fbfd69/Documents/3_IES/8-Semestr/Data Analysis in Python/Python_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="708" documentId="8_{534CA496-1AC6-5749-A256-08ECE197E3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B82469A0-2168-DC46-93EB-0D05E7D4CA85}"/>
+  <xr:revisionPtr revIDLastSave="709" documentId="8_{534CA496-1AC6-5749-A256-08ECE197E3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40252958-089C-4B43-B976-E8EA9A690D6C}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{FE8946BB-4C5C-9C45-AE5D-68187B7683CC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="253">
   <si>
     <t>Munich</t>
   </si>
@@ -375,78 +375,6 @@
     <t>St. Pauli vs. Holstein Kiel</t>
   </si>
   <si>
-    <t>Bayer Leverkusen vs. St. Pauli</t>
-  </si>
-  <si>
-    <t>VfB Stuttgart vs. Union Berlin</t>
-  </si>
-  <si>
-    <t>Bayern München vs. Heidenheim 1846</t>
-  </si>
-  <si>
-    <t>Eintracht Frankfurt vs. Augsburg</t>
-  </si>
-  <si>
-    <t>Wolfsburg vs. Mainz 05</t>
-  </si>
-  <si>
-    <t>Bor. Mönchengladbach vs. Borussia Dortmund</t>
-  </si>
-  <si>
-    <t>Bochum vs. Werder Bremen</t>
-  </si>
-  <si>
-    <t>Holstein Kiel vs. RB Leipzig</t>
-  </si>
-  <si>
-    <t>RB Leipzig vs. Eintracht Frankfurt</t>
-  </si>
-  <si>
-    <t>Heidenheim 1846 vs. VfB Stuttgart</t>
-  </si>
-  <si>
-    <t>Freiburg vs. Wolfsburg</t>
-  </si>
-  <si>
-    <t>Mainz 05 vs. Bayern München</t>
-  </si>
-  <si>
-    <t>Bor. Mönchengladbach vs. Holstein Kiel</t>
-  </si>
-  <si>
-    <t>Union Berlin vs. Bochum</t>
-  </si>
-  <si>
-    <t>St. Pauli vs. Werder Bremen</t>
-  </si>
-  <si>
-    <t>Augsburg vs. Bayer Leverkusen</t>
-  </si>
-  <si>
-    <t>Bayer Leverkusen vs. Freiburg</t>
-  </si>
-  <si>
-    <t>VfB Stuttgart vs. St. Pauli</t>
-  </si>
-  <si>
-    <t>Bayern München vs. RB Leipzig</t>
-  </si>
-  <si>
-    <t>Eintracht Frankfurt vs. Mainz 05</t>
-  </si>
-  <si>
-    <t>Werder Bremen vs. Union Berlin</t>
-  </si>
-  <si>
-    <t>Wolfsburg vs. Borussia Dortmund</t>
-  </si>
-  <si>
-    <t>Bochum vs. Heidenheim 1846</t>
-  </si>
-  <si>
-    <t>Holstein Kiel vs. Augsburg</t>
-  </si>
-  <si>
     <t>Kiel</t>
   </si>
   <si>
@@ -468,60 +396,6 @@
     <t>code</t>
   </si>
   <si>
-    <t>bundes100</t>
-  </si>
-  <si>
-    <t>bundes101</t>
-  </si>
-  <si>
-    <t>bundes102</t>
-  </si>
-  <si>
-    <t>bundes103</t>
-  </si>
-  <si>
-    <t>bundes104</t>
-  </si>
-  <si>
-    <t>bundes105</t>
-  </si>
-  <si>
-    <t>bundes106</t>
-  </si>
-  <si>
-    <t>bundes107</t>
-  </si>
-  <si>
-    <t>bundes108</t>
-  </si>
-  <si>
-    <t>bundes109</t>
-  </si>
-  <si>
-    <t>bundes110</t>
-  </si>
-  <si>
-    <t>bundes111</t>
-  </si>
-  <si>
-    <t>bundes112</t>
-  </si>
-  <si>
-    <t>bundes113</t>
-  </si>
-  <si>
-    <t>bundes114</t>
-  </si>
-  <si>
-    <t>bundes115</t>
-  </si>
-  <si>
-    <t>bundes116</t>
-  </si>
-  <si>
-    <t>bundes117</t>
-  </si>
-  <si>
     <t>A-p35722</t>
   </si>
   <si>
@@ -564,15 +438,6 @@
     <t>Mainz 05 vs. 1899 Sinsheim</t>
   </si>
   <si>
-    <t>1899 Sinsheim vs. Freiburg</t>
-  </si>
-  <si>
-    <t>Borussia Dortmund vs. 1899 Sinsheim</t>
-  </si>
-  <si>
-    <t>1899 Sinsheim vs. Bor. Mönchengladbach</t>
-  </si>
-  <si>
     <t>A-p33317</t>
   </si>
   <si>
@@ -919,33 +784,6 @@
   </si>
   <si>
     <t>bundes090</t>
-  </si>
-  <si>
-    <t>bundes091</t>
-  </si>
-  <si>
-    <t>bundes092</t>
-  </si>
-  <si>
-    <t>bundes093</t>
-  </si>
-  <si>
-    <t>bundes094</t>
-  </si>
-  <si>
-    <t>bundes095</t>
-  </si>
-  <si>
-    <t>bundes096</t>
-  </si>
-  <si>
-    <t>bundes097</t>
-  </si>
-  <si>
-    <t>bundes098</t>
-  </si>
-  <si>
-    <t>bundes099</t>
   </si>
   <si>
     <t>MUC</t>
@@ -1402,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A4DE301-258D-E545-BA5A-DCF6DF88238C}">
   <dimension ref="A1:G290"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="96" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93:XFD119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1419,7 +1257,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>9</v>
@@ -1434,15 +1272,15 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>305</v>
+        <v>251</v>
       </c>
       <c r="B2" s="2">
         <v>45537</v>
@@ -1457,15 +1295,15 @@
         <v>26</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="B3" s="5">
         <v>45549</v>
@@ -1480,15 +1318,15 @@
         <v>19</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="B4" s="5">
         <v>45549</v>
@@ -1503,38 +1341,38 @@
         <v>26</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="B5" s="5">
         <v>45549</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="B6" s="5">
         <v>45549</v>
@@ -1546,18 +1384,18 @@
         <v>23</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>303</v>
+        <v>249</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="B7" s="5">
         <v>45549</v>
@@ -1572,15 +1410,15 @@
         <v>17</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="B8" s="5">
         <v>45549</v>
@@ -1595,15 +1433,15 @@
         <v>28</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B9" s="5">
         <v>45549</v>
@@ -1618,15 +1456,15 @@
         <v>25</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="B10" s="5">
         <v>45549</v>
@@ -1641,15 +1479,15 @@
         <v>14</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="B11" s="5">
         <v>45549</v>
@@ -1658,21 +1496,21 @@
         <v>38</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="B12" s="5">
         <v>45556</v>
@@ -1687,15 +1525,15 @@
         <v>21</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="B13" s="5">
         <v>45556</v>
@@ -1710,15 +1548,15 @@
         <v>18</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="B14" s="5">
         <v>45556</v>
@@ -1730,18 +1568,18 @@
         <v>4</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="B15" s="5">
         <v>45556</v>
@@ -1756,15 +1594,15 @@
         <v>30</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="B16" s="5">
         <v>45556</v>
@@ -1776,18 +1614,18 @@
         <v>15</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>306</v>
+        <v>252</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="B17" s="5">
         <v>45556</v>
@@ -1802,21 +1640,21 @@
         <v>17</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="B18" s="5">
         <v>45556</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>1</v>
@@ -1825,15 +1663,15 @@
         <v>22</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="B19" s="5">
         <v>45556</v>
@@ -1848,15 +1686,15 @@
         <v>11</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="B20" s="5">
         <v>45556</v>
@@ -1865,21 +1703,21 @@
         <v>46</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="B21" s="5">
         <v>45563</v>
@@ -1894,15 +1732,15 @@
         <v>12</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="B22" s="5">
         <v>45563</v>
@@ -1917,15 +1755,15 @@
         <v>19</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="B23" s="5">
         <v>45563</v>
@@ -1940,38 +1778,38 @@
         <v>26</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="B24" s="5">
         <v>45563</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="B25" s="5">
         <v>45563</v>
@@ -1983,18 +1821,18 @@
         <v>23</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>303</v>
+        <v>249</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="B26" s="5">
         <v>45563</v>
@@ -2009,15 +1847,15 @@
         <v>28</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="B27" s="5">
         <v>45563</v>
@@ -2032,15 +1870,15 @@
         <v>25</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="B28" s="5">
         <v>45563</v>
@@ -2055,15 +1893,15 @@
         <v>14</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>229</v>
+        <v>184</v>
       </c>
       <c r="B29" s="5">
         <v>45563</v>
@@ -2072,21 +1910,21 @@
         <v>54</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="B30" s="5">
         <v>45570</v>
@@ -2101,21 +1939,21 @@
         <v>21</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="B31" s="5">
         <v>45570</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>3</v>
@@ -2124,15 +1962,15 @@
         <v>18</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="B32" s="5">
         <v>45570</v>
@@ -2144,18 +1982,18 @@
         <v>4</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="B33" s="5">
         <v>45570</v>
@@ -2170,15 +2008,15 @@
         <v>30</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c r="B34" s="5">
         <v>45570</v>
@@ -2190,18 +2028,18 @@
         <v>15</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>306</v>
+        <v>252</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="B35" s="5">
         <v>45570</v>
@@ -2216,15 +2054,15 @@
         <v>17</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="B36" s="5">
         <v>45570</v>
@@ -2239,15 +2077,15 @@
         <v>22</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="B37" s="5">
         <v>45570</v>
@@ -2262,15 +2100,15 @@
         <v>11</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="B38" s="5">
         <v>45570</v>
@@ -2279,21 +2117,21 @@
         <v>62</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
       <c r="B39" s="5">
         <v>45584</v>
@@ -2308,15 +2146,15 @@
         <v>21</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="B40" s="5">
         <v>45584</v>
@@ -2331,15 +2169,15 @@
         <v>12</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="B41" s="5">
         <v>45584</v>
@@ -2354,38 +2192,38 @@
         <v>26</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
       <c r="B42" s="5">
         <v>45584</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="B43" s="5">
         <v>45584</v>
@@ -2397,18 +2235,18 @@
         <v>23</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>303</v>
+        <v>249</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="B44" s="5">
         <v>45584</v>
@@ -2423,15 +2261,15 @@
         <v>28</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="B45" s="5">
         <v>45584</v>
@@ -2446,15 +2284,15 @@
         <v>25</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>246</v>
+        <v>201</v>
       </c>
       <c r="B46" s="5">
         <v>45584</v>
@@ -2469,15 +2307,15 @@
         <v>14</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c r="B47" s="5">
         <v>45584</v>
@@ -2486,21 +2324,21 @@
         <v>70</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="B48" s="5">
         <v>45591</v>
@@ -2515,15 +2353,15 @@
         <v>18</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
       <c r="B49" s="5">
         <v>45591</v>
@@ -2538,21 +2376,21 @@
         <v>19</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="B50" s="5">
         <v>45591</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>29</v>
@@ -2561,15 +2399,15 @@
         <v>30</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="B51" s="5">
         <v>45591</v>
@@ -2581,18 +2419,18 @@
         <v>15</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>306</v>
+        <v>252</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="B52" s="5">
         <v>45591</v>
@@ -2607,15 +2445,15 @@
         <v>17</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="B53" s="5">
         <v>45591</v>
@@ -2630,15 +2468,15 @@
         <v>25</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c r="B54" s="5">
         <v>45591</v>
@@ -2653,15 +2491,15 @@
         <v>22</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="B55" s="5">
         <v>45591</v>
@@ -2676,15 +2514,15 @@
         <v>11</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c r="B56" s="5">
         <v>45591</v>
@@ -2693,21 +2531,21 @@
         <v>78</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>257</v>
+        <v>212</v>
       </c>
       <c r="B57" s="5">
         <v>45598</v>
@@ -2722,15 +2560,15 @@
         <v>21</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="B58" s="5">
         <v>45598</v>
@@ -2745,15 +2583,15 @@
         <v>12</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>259</v>
+        <v>214</v>
       </c>
       <c r="B59" s="5">
         <v>45598</v>
@@ -2768,15 +2606,15 @@
         <v>26</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>260</v>
+        <v>215</v>
       </c>
       <c r="B60" s="5">
         <v>45598</v>
@@ -2788,41 +2626,41 @@
         <v>4</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>261</v>
+        <v>216</v>
       </c>
       <c r="B61" s="5">
         <v>45598</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="B62" s="5">
         <v>45598</v>
@@ -2834,18 +2672,18 @@
         <v>23</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>303</v>
+        <v>249</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="B63" s="5">
         <v>45598</v>
@@ -2860,15 +2698,15 @@
         <v>28</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="B64" s="5">
         <v>45598</v>
@@ -2883,15 +2721,15 @@
         <v>14</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="B65" s="5">
         <v>45598</v>
@@ -2900,21 +2738,21 @@
         <v>86</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="B66" s="5">
         <v>45605</v>
@@ -2929,15 +2767,15 @@
         <v>18</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>267</v>
+        <v>222</v>
       </c>
       <c r="B67" s="5">
         <v>45605</v>
@@ -2952,15 +2790,15 @@
         <v>19</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="B68" s="5">
         <v>45605</v>
@@ -2975,15 +2813,15 @@
         <v>30</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>269</v>
+        <v>224</v>
       </c>
       <c r="B69" s="5">
         <v>45605</v>
@@ -2995,24 +2833,24 @@
         <v>15</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>306</v>
+        <v>252</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="B70" s="5">
         <v>45605</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>16</v>
@@ -3021,15 +2859,15 @@
         <v>17</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>271</v>
+        <v>226</v>
       </c>
       <c r="B71" s="5">
         <v>45605</v>
@@ -3044,15 +2882,15 @@
         <v>25</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>272</v>
+        <v>227</v>
       </c>
       <c r="B72" s="5">
         <v>45605</v>
@@ -3067,15 +2905,15 @@
         <v>22</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>273</v>
+        <v>228</v>
       </c>
       <c r="B73" s="5">
         <v>45605</v>
@@ -3090,15 +2928,15 @@
         <v>11</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>274</v>
+        <v>229</v>
       </c>
       <c r="B74" s="5">
         <v>45605</v>
@@ -3107,21 +2945,21 @@
         <v>94</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
     </row>
     <row r="75" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>275</v>
+        <v>230</v>
       </c>
       <c r="B75" s="5">
         <v>45619</v>
@@ -3136,15 +2974,15 @@
         <v>21</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>276</v>
+        <v>231</v>
       </c>
       <c r="B76" s="5">
         <v>45619</v>
@@ -3159,15 +2997,15 @@
         <v>18</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>277</v>
+        <v>232</v>
       </c>
       <c r="B77" s="5">
         <v>45619</v>
@@ -3182,15 +3020,15 @@
         <v>12</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
     </row>
     <row r="78" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="B78" s="5">
         <v>45619</v>
@@ -3205,15 +3043,15 @@
         <v>26</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>279</v>
+        <v>234</v>
       </c>
       <c r="B79" s="5">
         <v>45619</v>
@@ -3225,41 +3063,41 @@
         <v>4</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>280</v>
+        <v>235</v>
       </c>
       <c r="B80" s="5">
         <v>45619</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>281</v>
+        <v>236</v>
       </c>
       <c r="B81" s="5">
         <v>45619</v>
@@ -3274,15 +3112,15 @@
         <v>28</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>282</v>
+        <v>237</v>
       </c>
       <c r="B82" s="5">
         <v>45619</v>
@@ -3297,15 +3135,15 @@
         <v>14</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>283</v>
+        <v>238</v>
       </c>
       <c r="B83" s="5">
         <v>45619</v>
@@ -3314,21 +3152,21 @@
         <v>102</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
     </row>
     <row r="84" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="B84" s="5">
         <v>45626</v>
@@ -3343,15 +3181,15 @@
         <v>19</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="B85" s="5">
         <v>45626</v>
@@ -3366,15 +3204,15 @@
         <v>26</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>286</v>
+        <v>241</v>
       </c>
       <c r="B86" s="5">
         <v>45626</v>
@@ -3389,15 +3227,15 @@
         <v>30</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
     </row>
     <row r="87" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
       <c r="B87" s="5">
         <v>45626</v>
@@ -3409,18 +3247,18 @@
         <v>15</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>306</v>
+        <v>252</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>288</v>
+        <v>243</v>
       </c>
       <c r="B88" s="5">
         <v>45626</v>
@@ -3432,18 +3270,18 @@
         <v>23</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>303</v>
+        <v>249</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
     </row>
     <row r="89" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="B89" s="5">
         <v>45626</v>
@@ -3458,21 +3296,21 @@
         <v>17</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
     </row>
     <row r="90" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>290</v>
+        <v>245</v>
       </c>
       <c r="B90" s="5">
         <v>45626</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>24</v>
@@ -3481,15 +3319,15 @@
         <v>25</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="91" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>291</v>
+        <v>246</v>
       </c>
       <c r="B91" s="5">
         <v>45626</v>
@@ -3504,15 +3342,15 @@
         <v>22</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>292</v>
+        <v>247</v>
       </c>
       <c r="B92" s="5">
         <v>45626</v>
@@ -3521,687 +3359,221 @@
         <v>110</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="B93" s="5">
-        <v>45633</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>199</v>
-      </c>
+      <c r="B93" s="5"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
     </row>
     <row r="94" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="B94" s="5">
-        <v>45633</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>200</v>
-      </c>
+      <c r="B94" s="5"/>
+      <c r="C94" s="4"/>
+      <c r="E94" s="3"/>
     </row>
     <row r="95" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="B95" s="5">
-        <v>45633</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="G95" s="6" t="s">
-        <v>302</v>
-      </c>
+      <c r="B95" s="5"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="3"/>
     </row>
     <row r="96" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="B96" s="5">
-        <v>45633</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F96" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="G96" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="B97" s="5">
-        <v>45633</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="G97" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="B98" s="5">
-        <v>45633</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="B99" s="5">
-        <v>45633</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="G99" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="B100" s="5">
-        <v>45633</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="G100" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="B101" s="5">
-        <v>45633</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="G101" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B102" s="5">
-        <v>45640</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F102" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G102" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B103" s="5">
-        <v>45640</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="G103" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B104" s="5">
-        <v>45640</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F104" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="G104" s="6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B105" s="5">
-        <v>45640</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F105" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="G105" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B106" s="5">
-        <v>45640</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F106" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G106" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B107" s="5">
-        <v>45640</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F107" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="G107" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B108" s="5">
-        <v>45640</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F108" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G108" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B109" s="5">
-        <v>45640</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F109" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="G109" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B110" s="5">
-        <v>45640</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F110" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="G110" s="6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B111" s="5">
-        <v>45647</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F111" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G111" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B112" s="5">
-        <v>45647</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F112" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="G112" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B113" s="5">
-        <v>45647</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F113" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="G113" s="6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B114" s="5">
-        <v>45647</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F114" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="G114" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B115" s="5">
-        <v>45647</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F115" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="G115" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B116" s="5">
-        <v>45647</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="F116" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="G116" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B117" s="5">
-        <v>45647</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F117" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="G117" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B118" s="5">
-        <v>45647</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F118" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="G118" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B119" s="5">
-        <v>45647</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F119" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="G119" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="5"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" spans="2:5" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="5"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" spans="2:5" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="5"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" spans="2:5" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="5"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" spans="2:5" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="5"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" spans="2:5" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="5"/>
+      <c r="C101" s="4"/>
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" spans="2:5" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="5"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+    </row>
+    <row r="103" spans="2:5" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="5"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+    </row>
+    <row r="104" spans="2:5" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="5"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+    </row>
+    <row r="105" spans="2:5" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="5"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+    </row>
+    <row r="106" spans="2:5" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="5"/>
+      <c r="C106" s="4"/>
+      <c r="E106" s="3"/>
+    </row>
+    <row r="107" spans="2:5" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B107" s="5"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+    </row>
+    <row r="108" spans="2:5" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="5"/>
+      <c r="C108" s="4"/>
+      <c r="E108" s="3"/>
+    </row>
+    <row r="109" spans="2:5" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B109" s="5"/>
+      <c r="C109" s="4"/>
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" spans="2:5" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B110" s="5"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+    </row>
+    <row r="111" spans="2:5" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="5"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" spans="2:5" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="5"/>
+      <c r="C112" s="4"/>
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" spans="2:5" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B113" s="5"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" spans="2:5" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B114" s="5"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+    </row>
+    <row r="115" spans="2:5" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="5"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+    </row>
+    <row r="116" spans="2:5" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="5"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+    </row>
+    <row r="117" spans="2:5" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="5"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+    </row>
+    <row r="118" spans="2:5" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="5"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+    </row>
+    <row r="119" spans="2:5" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B119" s="5"/>
+      <c r="C119" s="4"/>
+      <c r="E119" s="3"/>
+    </row>
+    <row r="120" spans="2:5" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="5"/>
       <c r="C120" s="4"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
     </row>
-    <row r="121" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:5" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="5"/>
       <c r="C121" s="4"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
     </row>
-    <row r="122" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:5" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="5"/>
       <c r="C122" s="4"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
     </row>
-    <row r="123" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:5" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="5"/>
       <c r="C123" s="4"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
     </row>
-    <row r="124" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:5" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="5"/>
       <c r="C124" s="4"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
     </row>
-    <row r="125" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:5" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="5"/>
       <c r="C125" s="4"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
     </row>
-    <row r="126" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:5" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="5"/>
       <c r="C126" s="4"/>
       <c r="E126" s="3"/>
     </row>
-    <row r="127" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:5" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="5"/>
       <c r="C127" s="4"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
     </row>
-    <row r="128" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:5" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="5"/>
       <c r="C128" s="4"/>
       <c r="E128" s="3"/>
